--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngelovani\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AFF920-5339-4B11-8C6F-D6C005C092CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="schedule" sheetId="2" r:id="rId2"/>
-    <sheet name="emails" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="schedule" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="emails" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -29,466 +24,484 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="147">
   <si>
-    <t>January '21</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Tu</t>
-  </si>
-  <si>
-    <t>We</t>
-  </si>
-  <si>
-    <t>Th</t>
-  </si>
-  <si>
-    <t>Fri</t>
-  </si>
-  <si>
-    <t>Sat</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>Basaria Daviti</t>
-  </si>
-  <si>
-    <t>FS6</t>
-  </si>
-  <si>
-    <t>FS5</t>
-  </si>
-  <si>
-    <t>Vac</t>
-  </si>
-  <si>
-    <t>FS4/SS</t>
-  </si>
-  <si>
-    <t>FS1</t>
-  </si>
-  <si>
-    <t>FS2</t>
-  </si>
-  <si>
-    <t>Devi Devidze</t>
-  </si>
-  <si>
-    <t>SS/FS4</t>
-  </si>
-  <si>
-    <t>FS7</t>
-  </si>
-  <si>
-    <t>Cherkezishvili Tornike</t>
-  </si>
-  <si>
-    <t>FS3</t>
-  </si>
-  <si>
-    <t>Shiukashvili Mariana</t>
-  </si>
-  <si>
-    <t>Nakopia Ana</t>
-  </si>
-  <si>
-    <t>Mtvarelishvili Nika</t>
-  </si>
-  <si>
-    <t>Zurab Maisaia</t>
-  </si>
-  <si>
-    <t>Kutubidze Diana</t>
-  </si>
-  <si>
-    <t>Velijanashvili Tamta</t>
-  </si>
-  <si>
-    <t>Nana Amoevi</t>
-  </si>
-  <si>
-    <t>Drozdova Tamar</t>
-  </si>
-  <si>
-    <t>Anana Ananiashvili</t>
-  </si>
-  <si>
-    <t>Gelovani Nodar</t>
-  </si>
-  <si>
-    <t>Shamatava Mamuka</t>
-  </si>
-  <si>
-    <t>New FS</t>
-  </si>
-  <si>
-    <t>Todua Zaza</t>
-  </si>
-  <si>
-    <t>Gvatua Eka</t>
-  </si>
-  <si>
-    <t>Imnadze Ani</t>
-  </si>
-  <si>
-    <t>Arachemia Nino</t>
-  </si>
-  <si>
-    <t>Regina Kruger</t>
-  </si>
-  <si>
-    <t>Ackasova Aleksandra</t>
-  </si>
-  <si>
-    <t>Sulaberidze Nino</t>
-  </si>
-  <si>
-    <t>Giorgi Maisuradze</t>
-  </si>
-  <si>
-    <t>Chkheidze Nino</t>
-  </si>
-  <si>
-    <t>Makhatadze Davit</t>
-  </si>
-  <si>
-    <t>Beniashvili Victoria</t>
-  </si>
-  <si>
-    <t>Marina Romanovskaia</t>
-  </si>
-  <si>
-    <t>Siradze Sopiko</t>
-  </si>
-  <si>
-    <t>Razmadze Niko</t>
-  </si>
-  <si>
-    <t>Imamaliyev Yagub</t>
-  </si>
-  <si>
-    <t>Bachoshvili Giorgi</t>
-  </si>
-  <si>
-    <t>GAPS</t>
-  </si>
-  <si>
-    <t>Artemi Arutinovi</t>
-  </si>
-  <si>
-    <t>Khardziani Tamari</t>
-  </si>
-  <si>
-    <t>Ioseliani Anastasia</t>
-  </si>
-  <si>
-    <t>Kudzoshvili Teona</t>
-  </si>
-  <si>
-    <t>Kandelaki Tsira</t>
-  </si>
-  <si>
-    <t>Chincharauli Giga</t>
-  </si>
-  <si>
-    <t>Tskhvedadze Sandro</t>
-  </si>
-  <si>
-    <t>Petriashvili Tornike</t>
-  </si>
-  <si>
-    <t>Chapidze Natalia</t>
-  </si>
-  <si>
-    <t>Savaneli Nino</t>
-  </si>
-  <si>
-    <t>Dartsmelia Mamuka</t>
-  </si>
-  <si>
-    <t>Razmadze Natia</t>
-  </si>
-  <si>
-    <t>Tsomaia Tinatin</t>
-  </si>
-  <si>
-    <t>Ekaterine Kartsivadze</t>
-  </si>
-  <si>
-    <t>Ismailov Idaiat</t>
-  </si>
-  <si>
-    <t>Elyar Akhi</t>
-  </si>
-  <si>
-    <t>Tevzadze Ilia</t>
-  </si>
-  <si>
-    <t>Nairashvili Elene</t>
-  </si>
-  <si>
-    <t>Utiashvili Tamar</t>
-  </si>
-  <si>
-    <t>Kadzanaia Tamar</t>
-  </si>
-  <si>
-    <t>Isaev Muraz</t>
-  </si>
-  <si>
-    <t>Rukhaia Nana</t>
-  </si>
-  <si>
-    <t>Erkut Batuhan</t>
-  </si>
-  <si>
-    <t>Kama Mustafa</t>
-  </si>
-  <si>
-    <t>Magalashvili Lala</t>
-  </si>
-  <si>
-    <t>Kvaratskhelia Marika</t>
-  </si>
-  <si>
-    <t>Gogoberishvili Aleksandre</t>
-  </si>
-  <si>
-    <t>Kikaleishvili Ana</t>
-  </si>
-  <si>
-    <t>Nanitashvili Revaz</t>
-  </si>
-  <si>
-    <t>emails</t>
-  </si>
-  <si>
-    <t>aelyar@evolution.com</t>
-  </si>
-  <si>
-    <t>dbasaria@evolutiongaming.com</t>
-  </si>
-  <si>
-    <t>namoevi@evolution.com </t>
-  </si>
-  <si>
-    <t>ddevidze@evolution.com</t>
-  </si>
-  <si>
-    <t>tcherkezishvili@evolution.com</t>
-  </si>
-  <si>
-    <t>mromanovskaia@evolution.com</t>
-  </si>
-  <si>
-    <t>gmaisuradze@evolution.com</t>
-  </si>
-  <si>
-    <t>nchkheidze@evolution.com</t>
-  </si>
-  <si>
-    <t>dmakhatadze@evolution.com</t>
-  </si>
-  <si>
-    <t>vbeniashvili@evolution.com </t>
-  </si>
-  <si>
-    <t>anakopia@evolution.com</t>
-  </si>
-  <si>
-    <t>rkruger@evolution.com</t>
-  </si>
-  <si>
-    <t>aackasova@evolution.com</t>
-  </si>
-  <si>
-    <t>mshamatava@evolution.com</t>
-  </si>
-  <si>
-    <t>tvelijanashvili@evolution.com</t>
-  </si>
-  <si>
-    <t>tutiashvili@evolution.com</t>
-  </si>
-  <si>
-    <t>ngelovani@evolution.com</t>
-  </si>
-  <si>
-    <t>ssiradze@evolution.com</t>
-  </si>
-  <si>
-    <t>yimamaliyev@evolution.com</t>
-  </si>
-  <si>
-    <t>Mdartsmelia@evolution.com</t>
-  </si>
-  <si>
-    <t>enairashvili@evolution.com</t>
-  </si>
-  <si>
-    <t>gchincharauli@evolution.com</t>
-  </si>
-  <si>
-    <t>misaev@evolution.com</t>
-  </si>
-  <si>
-    <t>nsavaneli@evolution.com</t>
-  </si>
-  <si>
-    <t>nmtvarelishvili@evolution.com</t>
-  </si>
-  <si>
-    <t>iismailovi@evolution.com</t>
-  </si>
-  <si>
-    <t>nchapidze@evolution.com</t>
-  </si>
-  <si>
-    <t>agogoberishvili@evolution.com</t>
-  </si>
-  <si>
-    <t>mkama@evolution.com </t>
-  </si>
-  <si>
-    <t>nrukhaia@evolution.com</t>
-  </si>
-  <si>
-    <t>berkut@evolution.com </t>
-  </si>
-  <si>
-    <t>dkutubidze@evolution.com</t>
-  </si>
-  <si>
-    <t>ttsomaia@evolution.com</t>
-  </si>
-  <si>
-    <t>zmaisaia@evolution.com</t>
-  </si>
-  <si>
-    <t>gbachoshvili@evolution.com</t>
-  </si>
-  <si>
-    <t>ekartsivadze@evolution.com</t>
-  </si>
-  <si>
-    <t>egvatua@evolution.com</t>
-  </si>
-  <si>
-    <t>aimnadze@evolution.com </t>
-  </si>
-  <si>
-    <t>tdrozdova@evolution.com</t>
-  </si>
-  <si>
-    <t>narachemia@evolution.com</t>
-  </si>
-  <si>
-    <t>tkadzanaia@evolution.com</t>
-  </si>
-  <si>
-    <t>rnanitashvili@evolution.com</t>
-  </si>
-  <si>
-    <t>mshiukashvili@evolution.com </t>
-  </si>
-  <si>
-    <t>stskhvedadze@evolution.com</t>
-  </si>
-  <si>
-    <t>tkandelaki@evolution.com</t>
-  </si>
-  <si>
-    <t>Mkvaratskhelia3@evolution.com</t>
-  </si>
-  <si>
-    <t>tpetriashvili@evolution.com</t>
-  </si>
-  <si>
-    <t>itevzadze@evolution.com</t>
-  </si>
-  <si>
-    <t>nrazmadze5@evolution.com</t>
-  </si>
-  <si>
-    <t>tkhardziani@evolution.com</t>
-  </si>
-  <si>
-    <t>aioseliani@evolution.com</t>
-  </si>
-  <si>
-    <t>ztodua@evolution.com</t>
-  </si>
-  <si>
-    <t>akikaleishvili@evolution.com</t>
-  </si>
-  <si>
-    <t>tkudzoshvili@evolution.com</t>
-  </si>
-  <si>
-    <t>nrazmadze3@evolution.com</t>
-  </si>
-  <si>
-    <t>nsulaberidze@evolution.com</t>
-  </si>
-  <si>
-    <t>aananiashvili@evolution.com</t>
-  </si>
-  <si>
-    <t>lmagalashvili@evolution.com</t>
-  </si>
-  <si>
-    <t>Amoevi Nana</t>
-  </si>
-  <si>
-    <t>Maisaia Zurab</t>
-  </si>
-  <si>
-    <t>Kruger Regina</t>
-  </si>
-  <si>
-    <t>Maisuradze Giorgi</t>
-  </si>
-  <si>
-    <t>Romanovskaia Marina</t>
-  </si>
-  <si>
-    <t>Arutinovi Artemi</t>
-  </si>
-  <si>
-    <t>Kartsivadze Ekaterine</t>
-  </si>
-  <si>
-    <t>Ananiashvili Anana</t>
-  </si>
-  <si>
-    <t>aarutinovi@evolution.com </t>
+    <t xml:space="preserve">January '21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basaria Daviti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS4/SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devi Devidze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS/FS4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherkezishvili Tornike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiukashvili Mariana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakopia Ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mtvarelishvili Nika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zurab Maisaia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kutubidze Diana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velijanashvili Tamta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nana Amoevi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drozdova Tamar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anana Ananiashvili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gelovani Nodar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shamatava Mamuka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New FS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todua Zaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gvatua Eka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imnadze Ani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arachemia Nino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regina Kruger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ackasova Aleksandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulaberidze Nino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giorgi Maisuradze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chkheidze Nino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makhatadze Davit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beniashvili Victoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marina Romanovskaia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siradze Sopiko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razmadze Niko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imamaliyev Yagub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachoshvili Giorgi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artemi Arutinovi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khardziani Tamari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ioseliani Anastasia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kudzoshvili Teona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kandelaki Tsira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chincharauli Giga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tskhvedadze Sandro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petriashvili Tornike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapidze Natalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savaneli Nino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dartsmelia Mamuka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razmadze Natia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsomaia Tinatin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ekaterine Kartsivadze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ismailov Idaiat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elyar Akhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tevzadze Ilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nairashvili Elene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiashvili Tamar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadzanaia Tamar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaev Muraz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukhaia Nana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erkut Batuhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kama Mustafa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magalashvili Lala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kvaratskhelia Marika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gogoberishvili Aleksandre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kikaleishvili Ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanitashvili Revaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maisaia Zurab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amoevi Nana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananiashvili Anana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kruger Regina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maisuradze Giorgi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romanovskaia Marina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arutinovi Artemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kartsivadze Ekaterine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aackasova@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aananiashvili@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aarutinovi@evolution.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aelyar@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agogoberishvili@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aimnadze@evolution.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aioseliani@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akikaleishvili@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anakopia@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">berkut@evolution.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dbasaria@evolutiongaming.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddevidze@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dkutubidze@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmakhatadze@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egvatua@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ekartsivadze@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enairashvili@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gbachoshvili@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gchincharauli@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gmaisuradze@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iismailovi@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itevzadze@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lmagalashvili@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mdartsmelia@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">misaev@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkama@evolution.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mkvaratskhelia3@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mromanovskaia@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mshamatava@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mshiukashvili@evolution.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">namoevi@evolution.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">narachemia@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nchapidze@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nchkheidze@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ngelovani@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nmtvarelishvili@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nrazmadze3@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nrazmadze5@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nrukhaia@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nsavaneli@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nsulaberidze@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rkruger@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnanitashvili@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssiradze@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stskhvedadze@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcherkezishvili@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tdrozdova@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tkadzanaia@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tkandelaki@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tkhardziani@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tkudzoshvili@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tpetriashvili@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ttsomaia@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tutiashvili@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tvelijanashvili@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vbeniashvili@evolution.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yimamaliyev@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zmaisaia@evolution.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ztodua@evolution.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -501,157 +514,237 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7C80"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFF6D6D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFB4C7E7"/>
+        <bgColor rgb="FF9DC3E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF9DC3E6"/>
+        <bgColor rgb="FFB4C7E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F0D9"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6D6D"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFF7C80"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="5">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+  <cellXfs count="26">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -695,293 +788,86 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF9C6500"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB4C7E7"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF7C80"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFE2F0D9"/>
+      <rgbColor rgb="FFFFEB9C"/>
+      <rgbColor rgb="FF9DC3E6"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFE699"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6D6D"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AD73"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,101 +957,101 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="3" t="n">
         <v>1.2</v>
       </c>
-      <c r="D2" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E2" s="3" t="n">
         <v>3.2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="1" t="n">
         <v>4.2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="1" t="n">
         <v>5.2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="1" t="n">
         <v>6.2</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="3" t="n">
         <v>7.2</v>
       </c>
-      <c r="J2" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="K2" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="L2" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="J2" s="3" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <v>11.2</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="1" t="n">
         <v>12.2</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="3" t="n">
         <v>13.2</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="3" t="n">
         <v>14.2</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="3" t="n">
         <v>15.2</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="1" t="n">
         <v>16.2</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="1" t="n">
         <v>17.2</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="1" t="n">
         <v>18.2</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="3" t="n">
         <v>19.2</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="3" t="n">
         <v>20.2</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="3" t="n">
         <v>21.2</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="1" t="n">
         <v>22.2</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="1" t="n">
         <v>23.2</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="1" t="n">
         <v>24.2</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2" s="3" t="n">
         <v>25.2</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AB2" s="3" t="n">
         <v>26.2</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AC2" s="3" t="n">
         <v>27.2</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="1" t="n">
         <v>28.2</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1223,11 +1109,11 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
@@ -1275,11 +1161,11 @@
       </c>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
@@ -1325,11 +1211,11 @@
       </c>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1375,11 +1261,11 @@
       </c>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1425,11 +1311,11 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1485,11 +1371,11 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1545,14 +1431,14 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1595,11 +1481,11 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1657,11 +1543,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1709,11 +1595,11 @@
       </c>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="1"/>
@@ -1761,11 +1647,11 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1829,11 +1715,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1881,11 +1767,11 @@
       </c>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="1"/>
@@ -1931,25 +1817,25 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
       <c r="O17" s="1"/>
       <c r="P17" s="4" t="s">
         <v>20</v>
@@ -1979,25 +1865,25 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
       <c r="O18" s="1"/>
       <c r="P18" s="4" t="s">
         <v>15</v>
@@ -2027,79 +1913,79 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="V19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="W19" s="11"/>
-      <c r="X19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD19" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="V19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="W19" s="13"/>
+      <c r="X19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD19" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C20" s="7"/>
@@ -2107,34 +1993,34 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="17" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="14" t="s">
+      <c r="M20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="17" t="s">
         <v>20</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="T20" s="14" t="s">
+      <c r="S20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="T20" s="17" t="s">
         <v>14</v>
       </c>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
-      <c r="Y20" s="15" t="s">
+      <c r="Y20" s="18" t="s">
         <v>11</v>
       </c>
       <c r="Z20" s="7"/>
@@ -2143,14 +2029,14 @@
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="4" t="s">
@@ -2163,7 +2049,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="14" t="s">
+      <c r="L21" s="17" t="s">
         <v>14</v>
       </c>
       <c r="M21" s="1"/>
@@ -2191,14 +2077,14 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="4" t="s">
@@ -2251,14 +2137,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2291,7 +2177,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
-      <c r="Z23" s="15" t="s">
+      <c r="Z23" s="18" t="s">
         <v>10</v>
       </c>
       <c r="AA23" s="7"/>
@@ -2299,25 +2185,25 @@
       <c r="AC23" s="7"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -2347,14 +2233,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -2397,11 +2283,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C26" s="1"/>
@@ -2457,11 +2343,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C27" s="1"/>
@@ -2503,15 +2389,15 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
-      <c r="AD27" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD27" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C28" s="1"/>
@@ -2557,11 +2443,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C29" s="1"/>
@@ -2607,11 +2493,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
@@ -2667,11 +2553,11 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C31" s="1"/>
@@ -2737,11 +2623,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C32" s="1"/>
@@ -2777,7 +2663,7 @@
         <v>17</v>
       </c>
       <c r="Y32" s="1"/>
-      <c r="Z32" s="15" t="s">
+      <c r="Z32" s="18" t="s">
         <v>17</v>
       </c>
       <c r="AA32" s="1"/>
@@ -2787,11 +2673,11 @@
       </c>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C33" s="1"/>
@@ -2847,11 +2733,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C34" s="1"/>
@@ -2895,11 +2781,11 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C35" s="1"/>
@@ -2965,41 +2851,41 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
-      <c r="AD36" s="17"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="20"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -3089,122 +2975,122 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="3" t="n">
         <v>1.2</v>
       </c>
-      <c r="D38" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="D38" s="3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E38" s="3" t="n">
         <v>3.2</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="1" t="n">
         <v>4.2</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="1" t="n">
         <v>5.2</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="1" t="n">
         <v>6.2</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="3" t="n">
         <v>7.2</v>
       </c>
-      <c r="J38" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="K38" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="L38" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="M38" s="1">
+      <c r="J38" s="3" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="M38" s="1" t="n">
         <v>11.2</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38" s="1" t="n">
         <v>12.2</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38" s="3" t="n">
         <v>13.2</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38" s="3" t="n">
         <v>14.2</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="Q38" s="3" t="n">
         <v>15.2</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="1" t="n">
         <v>16.2</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="1" t="n">
         <v>17.2</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38" s="1" t="n">
         <v>18.2</v>
       </c>
-      <c r="U38" s="3">
+      <c r="U38" s="3" t="n">
         <v>19.2</v>
       </c>
-      <c r="V38" s="3">
+      <c r="V38" s="3" t="n">
         <v>20.2</v>
       </c>
-      <c r="W38" s="3">
+      <c r="W38" s="3" t="n">
         <v>21.2</v>
       </c>
-      <c r="X38" s="1">
+      <c r="X38" s="1" t="n">
         <v>22.2</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Y38" s="1" t="n">
         <v>23.2</v>
       </c>
-      <c r="Z38" s="1">
+      <c r="Z38" s="1" t="n">
         <v>24.2</v>
       </c>
-      <c r="AA38" s="3">
+      <c r="AA38" s="3" t="n">
         <v>25.2</v>
       </c>
-      <c r="AB38" s="3">
+      <c r="AB38" s="3" t="n">
         <v>26.2</v>
       </c>
-      <c r="AC38" s="3">
+      <c r="AC38" s="3" t="n">
         <v>27.2</v>
       </c>
-      <c r="AD38" s="1">
+      <c r="AD38" s="1" t="n">
         <v>28.2</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="18" t="s">
+      <c r="I39" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J39" s="1"/>
-      <c r="K39" s="18" t="s">
+      <c r="K39" s="21" t="s">
         <v>13</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="18" t="s">
+      <c r="O39" s="21" t="s">
         <v>13</v>
       </c>
       <c r="P39" s="1"/>
@@ -3212,7 +3098,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-      <c r="U39" s="18" t="s">
+      <c r="U39" s="21" t="s">
         <v>18</v>
       </c>
       <c r="V39" s="1"/>
@@ -3220,158 +3106,158 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
-      <c r="AA39" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB39" s="18" t="s">
+      <c r="AA39" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB39" s="21" t="s">
         <v>20</v>
       </c>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="18" t="s">
+      <c r="D40" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="18" t="s">
+      <c r="I40" s="21" t="s">
         <v>18</v>
       </c>
       <c r="J40" s="1"/>
-      <c r="K40" s="18" t="s">
+      <c r="K40" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="P40" s="18" t="s">
+      <c r="O40" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="P40" s="21" t="s">
         <v>13</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="V40" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="W40" s="18" t="s">
+      <c r="U40" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="V40" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="W40" s="21" t="s">
         <v>10</v>
       </c>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
-      <c r="AA40" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB40" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC40" s="18" t="s">
+      <c r="AA40" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB40" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC40" s="21" t="s">
         <v>15</v>
       </c>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="18" t="s">
+      <c r="D41" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="18" t="s">
+      <c r="I41" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J41" s="1"/>
-      <c r="K41" s="18" t="s">
+      <c r="K41" s="21" t="s">
         <v>17</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P41" s="18" t="s">
+      <c r="O41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P41" s="21" t="s">
         <v>15</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
-      <c r="U41" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="V41" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="W41" s="18" t="s">
+      <c r="U41" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V41" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W41" s="21" t="s">
         <v>18</v>
       </c>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
-      <c r="AA41" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB41" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC41" s="18" t="s">
+      <c r="AA41" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB41" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC41" s="21" t="s">
         <v>20</v>
       </c>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="18" t="s">
+      <c r="C42" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="J42" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="18" t="s">
+      <c r="J42" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="21" t="s">
         <v>18</v>
       </c>
       <c r="L42" s="1"/>
@@ -3379,7 +3265,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="18" t="s">
+      <c r="Q42" s="21" t="s">
         <v>11</v>
       </c>
       <c r="R42" s="1"/>
@@ -3387,41 +3273,41 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="X42" s="18" t="s">
+      <c r="W42" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="X42" s="21" t="s">
         <v>10</v>
       </c>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
-      <c r="AA42" s="18" t="s">
+      <c r="AA42" s="21" t="s">
         <v>15</v>
       </c>
       <c r="AB42" s="1"/>
-      <c r="AC42" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD42" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="AC42" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD42" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C43" s="7"/>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="18" t="s">
+      <c r="I43" s="21" t="s">
         <v>13</v>
       </c>
       <c r="J43" s="1"/>
@@ -3429,7 +3315,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="18" t="s">
+      <c r="O43" s="21" t="s">
         <v>17</v>
       </c>
       <c r="P43" s="1"/>
@@ -3438,78 +3324,78 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
-      <c r="V43" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="W43" s="18" t="s">
+      <c r="V43" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="W43" s="21" t="s">
         <v>14</v>
       </c>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
-      <c r="AA43" s="18" t="s">
+      <c r="AA43" s="21" t="s">
         <v>17</v>
       </c>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
       <c r="O44" s="1"/>
-      <c r="P44" s="18" t="s">
+      <c r="P44" s="21" t="s">
         <v>17</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
-      <c r="U44" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="V44" s="18" t="s">
+      <c r="U44" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="V44" s="21" t="s">
         <v>17</v>
       </c>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
-      <c r="AA44" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB44" s="18" t="s">
+      <c r="AA44" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB44" s="21" t="s">
         <v>10</v>
       </c>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="21" t="s">
         <v>20</v>
       </c>
       <c r="F45" s="1"/>
@@ -3517,17 +3403,17 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="18" t="s">
+      <c r="K45" s="21" t="s">
         <v>10</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="18" t="s">
+      <c r="O45" s="21" t="s">
         <v>20</v>
       </c>
       <c r="P45" s="1"/>
-      <c r="Q45" s="18" t="s">
+      <c r="Q45" s="21" t="s">
         <v>15</v>
       </c>
       <c r="R45" s="1"/>
@@ -3535,47 +3421,47 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="18" t="s">
+      <c r="W45" s="21" t="s">
         <v>13</v>
       </c>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
-      <c r="AB45" s="18" t="s">
+      <c r="AB45" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" s="18" t="s">
+      <c r="J46" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="21" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
-      <c r="O46" s="18" t="s">
+      <c r="O46" s="21" t="s">
         <v>15</v>
       </c>
       <c r="P46" s="1"/>
@@ -3585,7 +3471,7 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-      <c r="W46" s="18" t="s">
+      <c r="W46" s="21" t="s">
         <v>17</v>
       </c>
       <c r="X46" s="1"/>
@@ -3596,25 +3482,25 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="18" t="s">
+      <c r="I47" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="21" t="s">
         <v>11</v>
       </c>
       <c r="K47" s="1"/>
@@ -3623,40 +3509,40 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="18" t="s">
+      <c r="Q47" s="21" t="s">
         <v>18</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="W47" s="18" t="s">
+      <c r="V47" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="W47" s="21" t="s">
         <v>15</v>
       </c>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
-      <c r="AA47" s="18" t="s">
+      <c r="AA47" s="21" t="s">
         <v>13</v>
       </c>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="18" t="s">
+      <c r="C48" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="1"/>
@@ -3712,18 +3598,18 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
-      <c r="AD48" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="AD48" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="1"/>
@@ -3732,7 +3618,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="18" t="s">
+      <c r="J49" s="21" t="s">
         <v>10</v>
       </c>
       <c r="K49" s="1"/>
@@ -3740,16 +3626,16 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q49" s="18" t="s">
+      <c r="P49" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="21" t="s">
         <v>13</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
-      <c r="U49" s="18" t="s">
+      <c r="U49" s="21" t="s">
         <v>11</v>
       </c>
       <c r="V49" s="1"/>
@@ -3776,14 +3662,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="1"/>
@@ -3791,27 +3677,27 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="18" t="s">
+      <c r="I50" s="21" t="s">
         <v>14</v>
       </c>
       <c r="J50" s="1"/>
-      <c r="K50" s="18" t="s">
+      <c r="K50" s="21" t="s">
         <v>15</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
-      <c r="P50" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q50" s="18" t="s">
+      <c r="P50" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q50" s="21" t="s">
         <v>10</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
-      <c r="U50" s="18" t="s">
+      <c r="U50" s="21" t="s">
         <v>20</v>
       </c>
       <c r="V50" s="1"/>
@@ -3820,91 +3706,91 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
-      <c r="AB50" s="18" t="s">
+      <c r="AB50" s="21" t="s">
         <v>15</v>
       </c>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="18" t="s">
+      <c r="C51" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="21" t="s">
         <v>15</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J51" s="18" t="s">
+      <c r="I51" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="21" t="s">
         <v>20</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="O51" s="18" t="s">
+      <c r="O51" s="21" t="s">
         <v>14</v>
       </c>
       <c r="P51" s="1"/>
-      <c r="Q51" s="18" t="s">
+      <c r="Q51" s="21" t="s">
         <v>14</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
-      <c r="U51" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="V51" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="W51" s="18" t="s">
+      <c r="U51" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="V51" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="W51" s="21" t="s">
         <v>11</v>
       </c>
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
-      <c r="AA51" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB51" s="18" t="s">
+      <c r="AA51" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB51" s="21" t="s">
         <v>11</v>
       </c>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="1"/>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="18" t="s">
+      <c r="J52" s="21" t="s">
         <v>15</v>
       </c>
       <c r="K52" s="1"/>
@@ -3912,16 +3798,16 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
-      <c r="P52" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q52" s="18" t="s">
+      <c r="P52" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
-      <c r="U52" s="18" t="s">
+      <c r="U52" s="21" t="s">
         <v>15</v>
       </c>
       <c r="V52" s="1"/>
@@ -3930,22 +3816,22 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
-      <c r="AB52" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC52" s="18" t="s">
+      <c r="AB52" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC52" s="21" t="s">
         <v>17</v>
       </c>
       <c r="AD52" s="1"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="21" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="1"/>
@@ -3953,20 +3839,20 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J53" s="18" t="s">
+      <c r="I53" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="21" t="s">
         <v>18</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-      <c r="O53" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="P53" s="18" t="s">
+      <c r="O53" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="P53" s="21" t="s">
         <v>14</v>
       </c>
       <c r="Q53" s="1"/>
@@ -3974,7 +3860,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
-      <c r="V53" s="18" t="s">
+      <c r="V53" s="21" t="s">
         <v>14</v>
       </c>
       <c r="W53" s="1"/>
@@ -3983,76 +3869,76 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
-      <c r="AC53" s="18" t="s">
+      <c r="AC53" s="21" t="s">
         <v>13</v>
       </c>
       <c r="AD53" s="1"/>
     </row>
-    <row r="54" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="19" t="s">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q54" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
-      <c r="AA54" s="11"/>
-      <c r="AB54" s="11"/>
-      <c r="AC54" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD54" s="11"/>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q54" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="13"/>
+      <c r="AA54" s="13"/>
+      <c r="AB54" s="13"/>
+      <c r="AC54" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD54" s="13"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="20" t="s">
+      <c r="G55" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="24" t="s">
         <v>17</v>
       </c>
       <c r="I55" s="7"/>
@@ -4060,23 +3946,23 @@
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
-      <c r="N55" s="20" t="s">
+      <c r="N55" s="24" t="s">
         <v>11</v>
       </c>
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="T55" s="20" t="s">
+      <c r="S55" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="T55" s="24" t="s">
         <v>17</v>
       </c>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
       <c r="W55" s="7"/>
-      <c r="X55" s="20" t="s">
+      <c r="X55" s="24" t="s">
         <v>13</v>
       </c>
       <c r="Y55" s="7"/>
@@ -4086,21 +3972,21 @@
       <c r="AC55" s="7"/>
       <c r="AD55" s="7"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="18" t="s">
+      <c r="G56" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="21" t="s">
         <v>13</v>
       </c>
       <c r="I56" s="1"/>
@@ -4108,13 +3994,13 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-      <c r="N56" s="18" t="s">
+      <c r="N56" s="21" t="s">
         <v>14</v>
       </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-      <c r="R56" s="18" t="s">
+      <c r="R56" s="21" t="s">
         <v>17</v>
       </c>
       <c r="S56" s="1"/>
@@ -4122,10 +4008,10 @@
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
-      <c r="X56" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y56" s="18" t="s">
+      <c r="X56" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y56" s="21" t="s">
         <v>17</v>
       </c>
       <c r="Z56" s="1"/>
@@ -4134,37 +4020,37 @@
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G57" s="1"/>
-      <c r="H57" s="18" t="s">
+      <c r="H57" s="21" t="s">
         <v>18</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="L57" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="M57" s="18" t="s">
+      <c r="L57" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="21" t="s">
         <v>17</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
-      <c r="R57" s="18" t="s">
+      <c r="R57" s="21" t="s">
         <v>15</v>
       </c>
       <c r="S57" s="1"/>
@@ -4173,7 +4059,7 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
-      <c r="Y57" s="18" t="s">
+      <c r="Y57" s="21" t="s">
         <v>11</v>
       </c>
       <c r="Z57" s="1"/>
@@ -4182,37 +4068,37 @@
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G58" s="1"/>
-      <c r="H58" s="18" t="s">
+      <c r="H58" s="21" t="s">
         <v>20</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="18" t="s">
+      <c r="L58" s="21" t="s">
         <v>10</v>
       </c>
       <c r="M58" s="1"/>
-      <c r="N58" s="18" t="s">
+      <c r="N58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
-      <c r="R58" s="18" t="s">
+      <c r="R58" s="21" t="s">
         <v>14</v>
       </c>
       <c r="S58" s="1"/>
@@ -4220,7 +4106,7 @@
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
-      <c r="X58" s="18" t="s">
+      <c r="X58" s="21" t="s">
         <v>17</v>
       </c>
       <c r="Y58" s="1"/>
@@ -4230,17 +4116,17 @@
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G59" s="1"/>
@@ -4249,17 +4135,17 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="18" t="s">
+      <c r="M59" s="21" t="s">
         <v>13</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-      <c r="R59" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="S59" s="18" t="s">
+      <c r="R59" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S59" s="21" t="s">
         <v>13</v>
       </c>
       <c r="T59" s="1"/>
@@ -4267,10 +4153,10 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
-      <c r="Y59" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z59" s="18" t="s">
+      <c r="Y59" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z59" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AA59" s="1"/>
@@ -4278,11 +4164,11 @@
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C60" s="1"/>
@@ -4290,14 +4176,14 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="18" t="s">
+      <c r="H60" s="21" t="s">
         <v>15</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="18" t="s">
+      <c r="M60" s="21" t="s">
         <v>10</v>
       </c>
       <c r="N60" s="1"/>
@@ -4305,10 +4191,10 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
-      <c r="S60" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="T60" s="18" t="s">
+      <c r="S60" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T60" s="21" t="s">
         <v>13</v>
       </c>
       <c r="U60" s="1"/>
@@ -4316,42 +4202,42 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
-      <c r="Z60" s="18" t="s">
+      <c r="Z60" s="21" t="s">
         <v>20</v>
       </c>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
-      <c r="AD60" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
+      <c r="AD60" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-      <c r="R61" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="S61" s="18" t="s">
+      <c r="R61" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" s="21" t="s">
         <v>15</v>
       </c>
       <c r="T61" s="1"/>
@@ -4359,100 +4245,100 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
-      <c r="Y61" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z61" s="18" t="s">
+      <c r="Y61" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z61" s="21" t="s">
         <v>10</v>
       </c>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
-      <c r="AC61" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD61" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
+      <c r="AC61" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD61" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
-      <c r="R62" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S62" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="T62" s="18" t="s">
+      <c r="R62" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="S62" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="T62" s="21" t="s">
         <v>18</v>
       </c>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
-      <c r="X62" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y62" s="18" t="s">
+      <c r="X62" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y62" s="21" t="s">
         <v>15</v>
       </c>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
-      <c r="AC62" s="18" t="s">
+      <c r="AC62" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AD62" s="1"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="18" t="s">
+      <c r="F63" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="21" t="s">
         <v>20</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="18" t="s">
+      <c r="L63" s="21" t="s">
         <v>13</v>
       </c>
       <c r="M63" s="1"/>
-      <c r="N63" s="18" t="s">
+      <c r="N63" s="21" t="s">
         <v>15</v>
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
-      <c r="R63" s="18" t="s">
+      <c r="R63" s="21" t="s">
         <v>13</v>
       </c>
       <c r="S63" s="1"/>
@@ -4482,30 +4368,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" s="18" t="s">
+      <c r="G64" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="21" t="s">
         <v>14</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-      <c r="L64" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="M64" s="18" t="s">
+      <c r="L64" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M64" s="21" t="s">
         <v>18</v>
       </c>
       <c r="N64" s="1"/>
@@ -4514,14 +4400,14 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
-      <c r="T64" s="18" t="s">
+      <c r="T64" s="21" t="s">
         <v>15</v>
       </c>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
-      <c r="Y64" s="18" t="s">
+      <c r="Y64" s="21" t="s">
         <v>13</v>
       </c>
       <c r="Z64" s="1"/>
@@ -4530,18 +4416,18 @@
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="18" t="s">
+      <c r="G65" s="21" t="s">
         <v>11</v>
       </c>
       <c r="H65" s="1"/>
@@ -4549,17 +4435,17 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N65" s="18" t="s">
+      <c r="M65" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N65" s="21" t="s">
         <v>20</v>
       </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
-      <c r="S65" s="18" t="s">
+      <c r="S65" s="21" t="s">
         <v>10</v>
       </c>
       <c r="T65" s="1"/>
@@ -4568,87 +4454,87 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
-      <c r="Z65" s="18" t="s">
+      <c r="Z65" s="21" t="s">
         <v>15</v>
       </c>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
-      <c r="AD65" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
+      <c r="AD65" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" s="18" t="s">
+      <c r="F66" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="21" t="s">
         <v>11</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="M66" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="N66" s="18" t="s">
+      <c r="L66" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M66" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" s="21" t="s">
         <v>10</v>
       </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
-      <c r="S66" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="T66" s="18" t="s">
+      <c r="S66" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T66" s="21" t="s">
         <v>14</v>
       </c>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
-      <c r="X66" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y66" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z66" s="18" t="s">
+      <c r="X66" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y66" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z66" s="21" t="s">
         <v>17</v>
       </c>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
-      <c r="AD66" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
+      <c r="AD66" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="18" t="s">
+      <c r="F67" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G67" s="1"/>
@@ -4656,31 +4542,31 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M67" s="18" t="s">
+      <c r="L67" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="21" t="s">
         <v>15</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
-      <c r="R67" s="18" t="s">
+      <c r="R67" s="21" t="s">
         <v>11</v>
       </c>
       <c r="S67" s="1"/>
-      <c r="T67" s="18" t="s">
+      <c r="T67" s="21" t="s">
         <v>10</v>
       </c>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
-      <c r="X67" s="18" t="s">
+      <c r="X67" s="21" t="s">
         <v>18</v>
       </c>
       <c r="Y67" s="1"/>
-      <c r="Z67" s="18" t="s">
+      <c r="Z67" s="21" t="s">
         <v>14</v>
       </c>
       <c r="AA67" s="1"/>
@@ -4688,11 +4574,11 @@
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -4718,11 +4604,11 @@
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="18" t="s">
+      <c r="L68" s="21" t="s">
         <v>14</v>
       </c>
       <c r="M68" s="1"/>
-      <c r="N68" s="18" t="s">
+      <c r="N68" s="21" t="s">
         <v>13</v>
       </c>
       <c r="O68" s="1"/>
@@ -4730,7 +4616,7 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
-      <c r="T68" s="18" t="s">
+      <c r="T68" s="21" t="s">
         <v>20</v>
       </c>
       <c r="U68" s="1"/>
@@ -4738,45 +4624,45 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
-      <c r="Z68" s="18" t="s">
+      <c r="Z68" s="21" t="s">
         <v>11</v>
       </c>
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
-      <c r="AD68" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
+      <c r="AD68" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="18" t="s">
+      <c r="F69" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="21" t="s">
         <v>10</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M69" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="N69" s="18" t="s">
+      <c r="L69" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N69" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O69" s="1"/>
@@ -4802,34 +4688,34 @@
       <c r="W69" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="X69" s="18" t="s">
+      <c r="X69" s="21" t="s">
         <v>14</v>
       </c>
       <c r="Y69" s="1"/>
-      <c r="Z69" s="18" t="s">
+      <c r="Z69" s="21" t="s">
         <v>13</v>
       </c>
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
-      <c r="AD69" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
+      <c r="AD69" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="18" t="s">
+      <c r="F70" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H70" s="1"/>
@@ -4857,17 +4743,17 @@
       </c>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
-      <c r="S70" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="T70" s="18" t="s">
+      <c r="S70" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="T70" s="21" t="s">
         <v>11</v>
       </c>
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
-      <c r="Y70" s="18" t="s">
+      <c r="Y70" s="21" t="s">
         <v>10</v>
       </c>
       <c r="Z70" s="1"/>
@@ -4876,41 +4762,41 @@
       <c r="AC70" s="1"/>
       <c r="AD70" s="1"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
-      <c r="R71" s="17"/>
-      <c r="S71" s="17"/>
-      <c r="T71" s="17"/>
-      <c r="U71" s="17"/>
-      <c r="V71" s="17"/>
-      <c r="W71" s="17"/>
-      <c r="X71" s="17"/>
-      <c r="Y71" s="17"/>
-      <c r="Z71" s="17"/>
-      <c r="AA71" s="17"/>
-      <c r="AB71" s="17"/>
-      <c r="AC71" s="17"/>
-      <c r="AD71" s="17"/>
-    </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20"/>
+      <c r="Y71" s="20"/>
+      <c r="Z71" s="20"/>
+      <c r="AA71" s="20"/>
+      <c r="AB71" s="20"/>
+      <c r="AC71" s="20"/>
+      <c r="AD71" s="20"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -5000,121 +4886,130 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8" t="s">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="3" t="n">
         <v>1.2</v>
       </c>
-      <c r="D73" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E73" s="3">
+      <c r="D73" s="3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E73" s="3" t="n">
         <v>3.2</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="1" t="n">
         <v>4.2</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73" s="1" t="n">
         <v>5.2</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="1" t="n">
         <v>6.2</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I73" s="3" t="n">
         <v>7.2</v>
       </c>
-      <c r="J73" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="K73" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="L73" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="M73" s="1">
+      <c r="J73" s="3" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="K73" s="3" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="L73" s="1" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="M73" s="1" t="n">
         <v>11.2</v>
       </c>
-      <c r="N73" s="1">
+      <c r="N73" s="1" t="n">
         <v>12.2</v>
       </c>
-      <c r="O73" s="3">
+      <c r="O73" s="3" t="n">
         <v>13.2</v>
       </c>
-      <c r="P73" s="3">
+      <c r="P73" s="3" t="n">
         <v>14.2</v>
       </c>
-      <c r="Q73" s="3">
+      <c r="Q73" s="3" t="n">
         <v>15.2</v>
       </c>
-      <c r="R73" s="1">
+      <c r="R73" s="1" t="n">
         <v>16.2</v>
       </c>
-      <c r="S73" s="1">
+      <c r="S73" s="1" t="n">
         <v>17.2</v>
       </c>
-      <c r="T73" s="1">
+      <c r="T73" s="1" t="n">
         <v>18.2</v>
       </c>
-      <c r="U73" s="3">
+      <c r="U73" s="3" t="n">
         <v>19.2</v>
       </c>
-      <c r="V73" s="3">
+      <c r="V73" s="3" t="n">
         <v>20.2</v>
       </c>
-      <c r="W73" s="3">
+      <c r="W73" s="3" t="n">
         <v>21.2</v>
       </c>
-      <c r="X73" s="1">
+      <c r="X73" s="1" t="n">
         <v>22.2</v>
       </c>
-      <c r="Y73" s="1">
+      <c r="Y73" s="1" t="n">
         <v>23.2</v>
       </c>
-      <c r="Z73" s="1">
+      <c r="Z73" s="1" t="n">
         <v>24.2</v>
       </c>
-      <c r="AA73" s="3">
+      <c r="AA73" s="3" t="n">
         <v>25.2</v>
       </c>
-      <c r="AB73" s="3">
+      <c r="AB73" s="3" t="n">
         <v>26.2</v>
       </c>
-      <c r="AC73" s="3">
+      <c r="AC73" s="3" t="n">
         <v>27.2</v>
       </c>
-      <c r="AD73" s="1">
+      <c r="AD73" s="1" t="n">
         <v>28.2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D44:E44">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C25 C14:C15 C44 C3 C6 C8:C12">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9563A6D-8091-492F-989A-4E40ECDAF3AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5204,101 +5099,101 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="3" t="n">
         <v>1.2</v>
       </c>
-      <c r="D2" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E2" s="3" t="n">
         <v>3.2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="1" t="n">
         <v>4.2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="1" t="n">
         <v>5.2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="1" t="n">
         <v>6.2</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="3" t="n">
         <v>7.2</v>
       </c>
-      <c r="J2" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="K2" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="L2" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="J2" s="3" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <v>11.2</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="1" t="n">
         <v>12.2</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="3" t="n">
         <v>13.2</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="3" t="n">
         <v>14.2</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="3" t="n">
         <v>15.2</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="1" t="n">
         <v>16.2</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="1" t="n">
         <v>17.2</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="1" t="n">
         <v>18.2</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="3" t="n">
         <v>19.2</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="3" t="n">
         <v>20.2</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="3" t="n">
         <v>21.2</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="1" t="n">
         <v>22.2</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="1" t="n">
         <v>23.2</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="1" t="n">
         <v>24.2</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2" s="3" t="n">
         <v>25.2</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AB2" s="3" t="n">
         <v>26.2</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AC2" s="3" t="n">
         <v>27.2</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="1" t="n">
         <v>28.2</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -5356,11 +5251,11 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
@@ -5408,11 +5303,11 @@
       </c>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
@@ -5458,11 +5353,11 @@
       </c>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -5508,11 +5403,11 @@
       </c>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -5558,11 +5453,11 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -5618,11 +5513,11 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="1">
+        <v>79</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -5678,14 +5573,14 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
@@ -5728,11 +5623,11 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -5790,11 +5685,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="1">
+        <v>80</v>
+      </c>
+      <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -5842,11 +5737,11 @@
       </c>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="1"/>
@@ -5894,11 +5789,11 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -5962,11 +5857,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -6014,11 +5909,11 @@
       </c>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="1"/>
@@ -6064,25 +5959,25 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
       <c r="O17" s="1"/>
       <c r="P17" s="4" t="s">
         <v>20</v>
@@ -6112,25 +6007,25 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
       <c r="O18" s="1"/>
       <c r="P18" s="4" t="s">
         <v>15</v>
@@ -6160,79 +6055,79 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="V19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="W19" s="11"/>
-      <c r="X19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD19" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="V19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="W19" s="13"/>
+      <c r="X19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD19" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C20" s="7"/>
@@ -6240,34 +6135,34 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="17" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="14" t="s">
+      <c r="M20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="17" t="s">
         <v>20</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="T20" s="14" t="s">
+      <c r="S20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="T20" s="17" t="s">
         <v>14</v>
       </c>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
-      <c r="Y20" s="15" t="s">
+      <c r="Y20" s="18" t="s">
         <v>11</v>
       </c>
       <c r="Z20" s="7"/>
@@ -6276,14 +6171,14 @@
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="4" t="s">
@@ -6296,7 +6191,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="14" t="s">
+      <c r="L21" s="17" t="s">
         <v>14</v>
       </c>
       <c r="M21" s="1"/>
@@ -6324,14 +6219,14 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="4" t="s">
@@ -6384,14 +6279,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="1">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -6424,7 +6319,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
-      <c r="Z23" s="15" t="s">
+      <c r="Z23" s="18" t="s">
         <v>10</v>
       </c>
       <c r="AA23" s="7"/>
@@ -6432,25 +6327,25 @@
       <c r="AC23" s="7"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -6480,14 +6375,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -6530,11 +6425,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C26" s="1"/>
@@ -6590,11 +6485,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B27" s="1">
+        <v>83</v>
+      </c>
+      <c r="B27" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C27" s="1"/>
@@ -6636,15 +6531,15 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
-      <c r="AD27" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD27" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C28" s="1"/>
@@ -6690,11 +6585,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C29" s="1"/>
@@ -6740,11 +6635,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
@@ -6800,11 +6695,11 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="1">
+        <v>84</v>
+      </c>
+      <c r="B31" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C31" s="1"/>
@@ -6870,11 +6765,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C32" s="1"/>
@@ -6910,7 +6805,7 @@
         <v>17</v>
       </c>
       <c r="Y32" s="1"/>
-      <c r="Z32" s="15" t="s">
+      <c r="Z32" s="18" t="s">
         <v>17</v>
       </c>
       <c r="AA32" s="1"/>
@@ -6920,11 +6815,11 @@
       </c>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C33" s="1"/>
@@ -6980,11 +6875,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C34" s="1"/>
@@ -7028,11 +6923,11 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C35" s="1"/>
@@ -7098,32 +6993,32 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B36" s="1">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J36" s="1"/>
-      <c r="K36" s="18" t="s">
+      <c r="K36" s="21" t="s">
         <v>13</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="18" t="s">
+      <c r="O36" s="21" t="s">
         <v>13</v>
       </c>
       <c r="P36" s="1"/>
@@ -7131,7 +7026,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-      <c r="U36" s="18" t="s">
+      <c r="U36" s="21" t="s">
         <v>18</v>
       </c>
       <c r="V36" s="1"/>
@@ -7139,158 +7034,158 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
-      <c r="AA36" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB36" s="18" t="s">
+      <c r="AA36" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB36" s="21" t="s">
         <v>20</v>
       </c>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="18" t="s">
+      <c r="D37" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="18" t="s">
+      <c r="I37" s="21" t="s">
         <v>18</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="K37" s="18" t="s">
+      <c r="K37" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="P37" s="18" t="s">
+      <c r="O37" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="P37" s="21" t="s">
         <v>13</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-      <c r="U37" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="V37" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="W37" s="18" t="s">
+      <c r="U37" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="V37" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="W37" s="21" t="s">
         <v>10</v>
       </c>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
-      <c r="AA37" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB37" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC37" s="18" t="s">
+      <c r="AA37" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB37" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC37" s="21" t="s">
         <v>15</v>
       </c>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="18" t="s">
+      <c r="D38" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="18" t="s">
+      <c r="I38" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="K38" s="18" t="s">
+      <c r="K38" s="21" t="s">
         <v>17</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P38" s="18" t="s">
+      <c r="O38" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" s="21" t="s">
         <v>15</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="V38" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="W38" s="18" t="s">
+      <c r="U38" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V38" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W38" s="21" t="s">
         <v>18</v>
       </c>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
-      <c r="AA38" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB38" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC38" s="18" t="s">
+      <c r="AA38" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB38" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC38" s="21" t="s">
         <v>20</v>
       </c>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="18" t="s">
+      <c r="C39" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="J39" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="18" t="s">
+      <c r="J39" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="21" t="s">
         <v>18</v>
       </c>
       <c r="L39" s="1"/>
@@ -7298,7 +7193,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-      <c r="Q39" s="18" t="s">
+      <c r="Q39" s="21" t="s">
         <v>11</v>
       </c>
       <c r="R39" s="1"/>
@@ -7306,41 +7201,41 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-      <c r="W39" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="X39" s="18" t="s">
+      <c r="W39" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="X39" s="21" t="s">
         <v>10</v>
       </c>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
-      <c r="AA39" s="18" t="s">
+      <c r="AA39" s="21" t="s">
         <v>15</v>
       </c>
       <c r="AB39" s="1"/>
-      <c r="AC39" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD39" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="AC39" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD39" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="7"/>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="18" t="s">
+      <c r="I40" s="21" t="s">
         <v>13</v>
       </c>
       <c r="J40" s="1"/>
@@ -7348,7 +7243,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="18" t="s">
+      <c r="O40" s="21" t="s">
         <v>17</v>
       </c>
       <c r="P40" s="1"/>
@@ -7357,78 +7252,78 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
-      <c r="V40" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="W40" s="18" t="s">
+      <c r="V40" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="W40" s="21" t="s">
         <v>14</v>
       </c>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
-      <c r="AA40" s="18" t="s">
+      <c r="AA40" s="21" t="s">
         <v>17</v>
       </c>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
       <c r="O41" s="1"/>
-      <c r="P41" s="18" t="s">
+      <c r="P41" s="21" t="s">
         <v>17</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
-      <c r="U41" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="V41" s="18" t="s">
+      <c r="U41" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="V41" s="21" t="s">
         <v>17</v>
       </c>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
-      <c r="AA41" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB41" s="18" t="s">
+      <c r="AA41" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB41" s="21" t="s">
         <v>10</v>
       </c>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="21" t="s">
         <v>20</v>
       </c>
       <c r="F42" s="1"/>
@@ -7436,17 +7331,17 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="18" t="s">
+      <c r="K42" s="21" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="18" t="s">
+      <c r="O42" s="21" t="s">
         <v>20</v>
       </c>
       <c r="P42" s="1"/>
-      <c r="Q42" s="18" t="s">
+      <c r="Q42" s="21" t="s">
         <v>15</v>
       </c>
       <c r="R42" s="1"/>
@@ -7454,47 +7349,47 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="18" t="s">
+      <c r="W42" s="21" t="s">
         <v>13</v>
       </c>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
-      <c r="AB42" s="18" t="s">
+      <c r="AB42" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" s="18" t="s">
+      <c r="J43" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="21" t="s">
         <v>11</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="18" t="s">
+      <c r="O43" s="21" t="s">
         <v>15</v>
       </c>
       <c r="P43" s="1"/>
@@ -7504,7 +7399,7 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
-      <c r="W43" s="18" t="s">
+      <c r="W43" s="21" t="s">
         <v>17</v>
       </c>
       <c r="X43" s="1"/>
@@ -7515,25 +7410,25 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" s="18" t="s">
+      <c r="I44" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="21" t="s">
         <v>11</v>
       </c>
       <c r="K44" s="1"/>
@@ -7542,40 +7437,40 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="18" t="s">
+      <c r="Q44" s="21" t="s">
         <v>18</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="W44" s="18" t="s">
+      <c r="V44" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="W44" s="21" t="s">
         <v>15</v>
       </c>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
-      <c r="AA44" s="18" t="s">
+      <c r="AA44" s="21" t="s">
         <v>13</v>
       </c>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="18" t="s">
+      <c r="C45" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="1"/>
@@ -7631,18 +7526,18 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
-      <c r="AD45" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+      <c r="AD45" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D46" s="1"/>
@@ -7651,7 +7546,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="18" t="s">
+      <c r="J46" s="21" t="s">
         <v>10</v>
       </c>
       <c r="K46" s="1"/>
@@ -7659,16 +7554,16 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q46" s="18" t="s">
+      <c r="P46" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="21" t="s">
         <v>13</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
-      <c r="U46" s="18" t="s">
+      <c r="U46" s="21" t="s">
         <v>11</v>
       </c>
       <c r="V46" s="1"/>
@@ -7695,14 +7590,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="1"/>
@@ -7710,27 +7605,27 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="18" t="s">
+      <c r="I47" s="21" t="s">
         <v>14</v>
       </c>
       <c r="J47" s="1"/>
-      <c r="K47" s="18" t="s">
+      <c r="K47" s="21" t="s">
         <v>15</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q47" s="18" t="s">
+      <c r="P47" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q47" s="21" t="s">
         <v>10</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
-      <c r="U47" s="18" t="s">
+      <c r="U47" s="21" t="s">
         <v>20</v>
       </c>
       <c r="V47" s="1"/>
@@ -7739,91 +7634,91 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
-      <c r="AB47" s="18" t="s">
+      <c r="AB47" s="21" t="s">
         <v>15</v>
       </c>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="18" t="s">
+      <c r="C48" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="21" t="s">
         <v>15</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J48" s="18" t="s">
+      <c r="I48" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="21" t="s">
         <v>20</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="O48" s="18" t="s">
+      <c r="O48" s="21" t="s">
         <v>14</v>
       </c>
       <c r="P48" s="1"/>
-      <c r="Q48" s="18" t="s">
+      <c r="Q48" s="21" t="s">
         <v>14</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
-      <c r="U48" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="V48" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="W48" s="18" t="s">
+      <c r="U48" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="V48" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="W48" s="21" t="s">
         <v>11</v>
       </c>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
-      <c r="AA48" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB48" s="18" t="s">
+      <c r="AA48" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB48" s="21" t="s">
         <v>11</v>
       </c>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="18" t="s">
+      <c r="J49" s="21" t="s">
         <v>15</v>
       </c>
       <c r="K49" s="1"/>
@@ -7831,16 +7726,16 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q49" s="18" t="s">
+      <c r="P49" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="21" t="s">
         <v>17</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
-      <c r="U49" s="18" t="s">
+      <c r="U49" s="21" t="s">
         <v>15</v>
       </c>
       <c r="V49" s="1"/>
@@ -7849,22 +7744,22 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
-      <c r="AB49" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC49" s="18" t="s">
+      <c r="AB49" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC49" s="21" t="s">
         <v>17</v>
       </c>
       <c r="AD49" s="1"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B50" s="1">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="21" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="1"/>
@@ -7872,20 +7767,20 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" s="18" t="s">
+      <c r="I50" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="21" t="s">
         <v>18</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="P50" s="18" t="s">
+      <c r="O50" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="P50" s="21" t="s">
         <v>14</v>
       </c>
       <c r="Q50" s="1"/>
@@ -7893,7 +7788,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="18" t="s">
+      <c r="V50" s="21" t="s">
         <v>14</v>
       </c>
       <c r="W50" s="1"/>
@@ -7902,76 +7797,76 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
-      <c r="AC50" s="18" t="s">
+      <c r="AC50" s="21" t="s">
         <v>13</v>
       </c>
       <c r="AD50" s="1"/>
     </row>
-    <row r="51" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q51" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
-      <c r="AA51" s="11"/>
-      <c r="AB51" s="11"/>
-      <c r="AC51" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD51" s="11"/>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q51" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="13"/>
+      <c r="Z51" s="13"/>
+      <c r="AA51" s="13"/>
+      <c r="AB51" s="13"/>
+      <c r="AC51" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD51" s="13"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="20" t="s">
+      <c r="G52" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="24" t="s">
         <v>17</v>
       </c>
       <c r="I52" s="7"/>
@@ -7979,23 +7874,23 @@
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
-      <c r="N52" s="20" t="s">
+      <c r="N52" s="24" t="s">
         <v>11</v>
       </c>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="T52" s="20" t="s">
+      <c r="S52" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="T52" s="24" t="s">
         <v>17</v>
       </c>
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
       <c r="W52" s="7"/>
-      <c r="X52" s="20" t="s">
+      <c r="X52" s="24" t="s">
         <v>13</v>
       </c>
       <c r="Y52" s="7"/>
@@ -8005,21 +7900,21 @@
       <c r="AC52" s="7"/>
       <c r="AD52" s="7"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="18" t="s">
+      <c r="G53" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="21" t="s">
         <v>13</v>
       </c>
       <c r="I53" s="1"/>
@@ -8027,13 +7922,13 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="18" t="s">
+      <c r="N53" s="21" t="s">
         <v>14</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="18" t="s">
+      <c r="R53" s="21" t="s">
         <v>17</v>
       </c>
       <c r="S53" s="1"/>
@@ -8041,10 +7936,10 @@
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
-      <c r="X53" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y53" s="18" t="s">
+      <c r="X53" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y53" s="21" t="s">
         <v>17</v>
       </c>
       <c r="Z53" s="1"/>
@@ -8053,37 +7948,37 @@
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G54" s="1"/>
-      <c r="H54" s="18" t="s">
+      <c r="H54" s="21" t="s">
         <v>18</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="M54" s="18" t="s">
+      <c r="L54" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" s="21" t="s">
         <v>17</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
-      <c r="R54" s="18" t="s">
+      <c r="R54" s="21" t="s">
         <v>15</v>
       </c>
       <c r="S54" s="1"/>
@@ -8092,7 +7987,7 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
-      <c r="Y54" s="18" t="s">
+      <c r="Y54" s="21" t="s">
         <v>11</v>
       </c>
       <c r="Z54" s="1"/>
@@ -8101,37 +7996,37 @@
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G55" s="1"/>
-      <c r="H55" s="18" t="s">
+      <c r="H55" s="21" t="s">
         <v>20</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="18" t="s">
+      <c r="L55" s="21" t="s">
         <v>10</v>
       </c>
       <c r="M55" s="1"/>
-      <c r="N55" s="18" t="s">
+      <c r="N55" s="21" t="s">
         <v>17</v>
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-      <c r="R55" s="18" t="s">
+      <c r="R55" s="21" t="s">
         <v>14</v>
       </c>
       <c r="S55" s="1"/>
@@ -8139,7 +8034,7 @@
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
-      <c r="X55" s="18" t="s">
+      <c r="X55" s="21" t="s">
         <v>17</v>
       </c>
       <c r="Y55" s="1"/>
@@ -8149,17 +8044,17 @@
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G56" s="1"/>
@@ -8168,17 +8063,17 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56" s="18" t="s">
+      <c r="M56" s="21" t="s">
         <v>13</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-      <c r="R56" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="S56" s="18" t="s">
+      <c r="R56" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S56" s="21" t="s">
         <v>13</v>
       </c>
       <c r="T56" s="1"/>
@@ -8186,10 +8081,10 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
-      <c r="Y56" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z56" s="18" t="s">
+      <c r="Y56" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z56" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AA56" s="1"/>
@@ -8197,11 +8092,11 @@
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C57" s="1"/>
@@ -8209,14 +8104,14 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="18" t="s">
+      <c r="H57" s="21" t="s">
         <v>15</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="18" t="s">
+      <c r="M57" s="21" t="s">
         <v>10</v>
       </c>
       <c r="N57" s="1"/>
@@ -8224,10 +8119,10 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
-      <c r="S57" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="T57" s="18" t="s">
+      <c r="S57" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T57" s="21" t="s">
         <v>13</v>
       </c>
       <c r="U57" s="1"/>
@@ -8235,42 +8130,42 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
-      <c r="Z57" s="18" t="s">
+      <c r="Z57" s="21" t="s">
         <v>20</v>
       </c>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
-      <c r="AD57" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
+      <c r="AD57" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
-      <c r="R58" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="S58" s="18" t="s">
+      <c r="R58" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="S58" s="21" t="s">
         <v>15</v>
       </c>
       <c r="T58" s="1"/>
@@ -8278,100 +8173,100 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
-      <c r="Y58" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z58" s="18" t="s">
+      <c r="Y58" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z58" s="21" t="s">
         <v>10</v>
       </c>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
-      <c r="AC58" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD58" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
+      <c r="AC58" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD58" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-      <c r="R59" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S59" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="T59" s="18" t="s">
+      <c r="R59" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="S59" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="T59" s="21" t="s">
         <v>18</v>
       </c>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
-      <c r="X59" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y59" s="18" t="s">
+      <c r="X59" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y59" s="21" t="s">
         <v>15</v>
       </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
-      <c r="AC59" s="18" t="s">
+      <c r="AC59" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AD59" s="1"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="18" t="s">
+      <c r="F60" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="21" t="s">
         <v>20</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-      <c r="L60" s="18" t="s">
+      <c r="L60" s="21" t="s">
         <v>13</v>
       </c>
       <c r="M60" s="1"/>
-      <c r="N60" s="18" t="s">
+      <c r="N60" s="21" t="s">
         <v>15</v>
       </c>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
-      <c r="R60" s="18" t="s">
+      <c r="R60" s="21" t="s">
         <v>13</v>
       </c>
       <c r="S60" s="1"/>
@@ -8401,30 +8296,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H61" s="18" t="s">
+      <c r="G61" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="21" t="s">
         <v>14</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="M61" s="18" t="s">
+      <c r="L61" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M61" s="21" t="s">
         <v>18</v>
       </c>
       <c r="N61" s="1"/>
@@ -8433,14 +8328,14 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
-      <c r="T61" s="18" t="s">
+      <c r="T61" s="21" t="s">
         <v>15</v>
       </c>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
-      <c r="Y61" s="18" t="s">
+      <c r="Y61" s="21" t="s">
         <v>13</v>
       </c>
       <c r="Z61" s="1"/>
@@ -8449,18 +8344,18 @@
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="18" t="s">
+      <c r="G62" s="21" t="s">
         <v>11</v>
       </c>
       <c r="H62" s="1"/>
@@ -8468,17 +8363,17 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N62" s="18" t="s">
+      <c r="M62" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N62" s="21" t="s">
         <v>20</v>
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
-      <c r="S62" s="18" t="s">
+      <c r="S62" s="21" t="s">
         <v>10</v>
       </c>
       <c r="T62" s="1"/>
@@ -8487,87 +8382,87 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
-      <c r="Z62" s="18" t="s">
+      <c r="Z62" s="21" t="s">
         <v>15</v>
       </c>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
-      <c r="AD62" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
+      <c r="AD62" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="18" t="s">
+      <c r="F63" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="21" t="s">
         <v>11</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="M63" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="N63" s="18" t="s">
+      <c r="L63" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M63" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63" s="21" t="s">
         <v>10</v>
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
-      <c r="S63" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="T63" s="18" t="s">
+      <c r="S63" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T63" s="21" t="s">
         <v>14</v>
       </c>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
-      <c r="X63" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y63" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z63" s="18" t="s">
+      <c r="X63" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y63" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z63" s="21" t="s">
         <v>17</v>
       </c>
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
-      <c r="AD63" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
+      <c r="AD63" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="21" t="s">
         <v>17</v>
       </c>
       <c r="G64" s="1"/>
@@ -8575,31 +8470,31 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-      <c r="L64" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M64" s="18" t="s">
+      <c r="L64" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" s="21" t="s">
         <v>15</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
-      <c r="R64" s="18" t="s">
+      <c r="R64" s="21" t="s">
         <v>11</v>
       </c>
       <c r="S64" s="1"/>
-      <c r="T64" s="18" t="s">
+      <c r="T64" s="21" t="s">
         <v>10</v>
       </c>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
-      <c r="X64" s="18" t="s">
+      <c r="X64" s="21" t="s">
         <v>18</v>
       </c>
       <c r="Y64" s="1"/>
-      <c r="Z64" s="18" t="s">
+      <c r="Z64" s="21" t="s">
         <v>14</v>
       </c>
       <c r="AA64" s="1"/>
@@ -8607,11 +8502,11 @@
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -8637,11 +8532,11 @@
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="18" t="s">
+      <c r="L65" s="21" t="s">
         <v>14</v>
       </c>
       <c r="M65" s="1"/>
-      <c r="N65" s="18" t="s">
+      <c r="N65" s="21" t="s">
         <v>13</v>
       </c>
       <c r="O65" s="1"/>
@@ -8649,7 +8544,7 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
-      <c r="T65" s="18" t="s">
+      <c r="T65" s="21" t="s">
         <v>20</v>
       </c>
       <c r="U65" s="1"/>
@@ -8657,45 +8552,45 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
-      <c r="Z65" s="18" t="s">
+      <c r="Z65" s="21" t="s">
         <v>11</v>
       </c>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
-      <c r="AD65" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
+      <c r="AD65" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="18" t="s">
+      <c r="F66" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="21" t="s">
         <v>10</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M66" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="N66" s="18" t="s">
+      <c r="L66" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N66" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O66" s="1"/>
@@ -8721,34 +8616,34 @@
       <c r="W66" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="X66" s="18" t="s">
+      <c r="X66" s="21" t="s">
         <v>14</v>
       </c>
       <c r="Y66" s="1"/>
-      <c r="Z66" s="18" t="s">
+      <c r="Z66" s="21" t="s">
         <v>13</v>
       </c>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
-      <c r="AD66" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
+      <c r="AD66" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="18" t="s">
+      <c r="F67" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H67" s="1"/>
@@ -8776,17 +8671,17 @@
       </c>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
-      <c r="S67" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="T67" s="18" t="s">
+      <c r="S67" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="T67" s="21" t="s">
         <v>11</v>
       </c>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
-      <c r="Y67" s="18" t="s">
+      <c r="Y67" s="21" t="s">
         <v>10</v>
       </c>
       <c r="Z67" s="1"/>
@@ -8797,335 +8692,347 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41 C17:C25 C14:C15 C3 C6 C8:C12">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E140C7BB-6D86-475C-B5ED-F2B6AF5FEF4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>131</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:A60">
-    <sortCondition ref="A2:A60"/>
-  </sortState>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{3E3BBA74-F596-451D-82A4-E06AF6F5B683}"/>
+    <hyperlink ref="A4" r:id="rId1" display="aarutinovi@evolution.com "/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Legolas\Desktop\schedule-generator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="schedule" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="emails" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="schedule" sheetId="2" r:id="rId2"/>
+    <sheet name="emails" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,455 +28,452 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="147">
   <si>
-    <t xml:space="preserve">January '21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basaria Daviti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS4/SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devi Devidze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS/FS4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cherkezishvili Tornike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiukashvili Mariana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakopia Ana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtvarelishvili Nika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zurab Maisaia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kutubidze Diana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velijanashvili Tamta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nana Amoevi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drozdova Tamar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anana Ananiashvili</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gelovani Nodar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shamatava Mamuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New FS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todua Zaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gvatua Eka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imnadze Ani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arachemia Nino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regina Kruger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ackasova Aleksandra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sulaberidze Nino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giorgi Maisuradze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chkheidze Nino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makhatadze Davit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beniashvili Victoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marina Romanovskaia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siradze Sopiko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Razmadze Niko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imamaliyev Yagub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachoshvili Giorgi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artemi Arutinovi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khardziani Tamari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ioseliani Anastasia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kudzoshvili Teona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kandelaki Tsira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chincharauli Giga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tskhvedadze Sandro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petriashvili Tornike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapidze Natalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Savaneli Nino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dartsmelia Mamuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Razmadze Natia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tsomaia Tinatin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ekaterine Kartsivadze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ismailov Idaiat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elyar Akhi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tevzadze Ilia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nairashvili Elene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utiashvili Tamar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadzanaia Tamar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isaev Muraz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukhaia Nana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erkut Batuhan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kama Mustafa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magalashvili Lala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kvaratskhelia Marika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gogoberishvili Aleksandre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kikaleishvili Ana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nanitashvili Revaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maisaia Zurab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amoevi Nana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananiashvili Anana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kruger Regina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maisuradze Giorgi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romanovskaia Marina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arutinovi Artemi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kartsivadze Ekaterine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aackasova@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aananiashvili@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aarutinovi@evolution.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">aelyar@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agogoberishvili@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aimnadze@evolution.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">aioseliani@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">akikaleishvili@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anakopia@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">berkut@evolution.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dbasaria@evolutiongaming.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddevidze@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dkutubidze@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmakhatadze@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">egvatua@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ekartsivadze@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enairashvili@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gbachoshvili@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gchincharauli@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gmaisuradze@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iismailovi@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">itevzadze@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lmagalashvili@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mdartsmelia@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">misaev@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mkama@evolution.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mkvaratskhelia3@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mromanovskaia@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mshamatava@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mshiukashvili@evolution.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">namoevi@evolution.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">narachemia@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nchapidze@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nchkheidze@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ngelovani@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nmtvarelishvili@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nrazmadze3@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nrazmadze5@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nrukhaia@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nsavaneli@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nsulaberidze@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rkruger@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rnanitashvili@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssiradze@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stskhvedadze@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tcherkezishvili@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tdrozdova@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tkadzanaia@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tkandelaki@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tkhardziani@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tkudzoshvili@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tpetriashvili@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ttsomaia@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tutiashvili@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tvelijanashvili@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vbeniashvili@evolution.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">yimamaliyev@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zmaisaia@evolution.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ztodua@evolution.com</t>
+    <t>January '21</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tu</t>
+  </si>
+  <si>
+    <t>We</t>
+  </si>
+  <si>
+    <t>Th</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>Basaria Daviti</t>
+  </si>
+  <si>
+    <t>FS6</t>
+  </si>
+  <si>
+    <t>FS5</t>
+  </si>
+  <si>
+    <t>Vac</t>
+  </si>
+  <si>
+    <t>FS4/SS</t>
+  </si>
+  <si>
+    <t>FS1</t>
+  </si>
+  <si>
+    <t>FS2</t>
+  </si>
+  <si>
+    <t>Devi Devidze</t>
+  </si>
+  <si>
+    <t>SS/FS4</t>
+  </si>
+  <si>
+    <t>FS7</t>
+  </si>
+  <si>
+    <t>Cherkezishvili Tornike</t>
+  </si>
+  <si>
+    <t>FS3</t>
+  </si>
+  <si>
+    <t>Shiukashvili Mariana</t>
+  </si>
+  <si>
+    <t>Nakopia Ana</t>
+  </si>
+  <si>
+    <t>Mtvarelishvili Nika</t>
+  </si>
+  <si>
+    <t>Zurab Maisaia</t>
+  </si>
+  <si>
+    <t>Kutubidze Diana</t>
+  </si>
+  <si>
+    <t>Velijanashvili Tamta</t>
+  </si>
+  <si>
+    <t>Nana Amoevi</t>
+  </si>
+  <si>
+    <t>Drozdova Tamar</t>
+  </si>
+  <si>
+    <t>Anana Ananiashvili</t>
+  </si>
+  <si>
+    <t>Gelovani Nodar</t>
+  </si>
+  <si>
+    <t>Shamatava Mamuka</t>
+  </si>
+  <si>
+    <t>New FS</t>
+  </si>
+  <si>
+    <t>Todua Zaza</t>
+  </si>
+  <si>
+    <t>Gvatua Eka</t>
+  </si>
+  <si>
+    <t>Imnadze Ani</t>
+  </si>
+  <si>
+    <t>Arachemia Nino</t>
+  </si>
+  <si>
+    <t>Regina Kruger</t>
+  </si>
+  <si>
+    <t>Ackasova Aleksandra</t>
+  </si>
+  <si>
+    <t>Sulaberidze Nino</t>
+  </si>
+  <si>
+    <t>Giorgi Maisuradze</t>
+  </si>
+  <si>
+    <t>Chkheidze Nino</t>
+  </si>
+  <si>
+    <t>Makhatadze Davit</t>
+  </si>
+  <si>
+    <t>Beniashvili Victoria</t>
+  </si>
+  <si>
+    <t>Marina Romanovskaia</t>
+  </si>
+  <si>
+    <t>Siradze Sopiko</t>
+  </si>
+  <si>
+    <t>Razmadze Niko</t>
+  </si>
+  <si>
+    <t>Imamaliyev Yagub</t>
+  </si>
+  <si>
+    <t>Bachoshvili Giorgi</t>
+  </si>
+  <si>
+    <t>GAPS</t>
+  </si>
+  <si>
+    <t>Artemi Arutinovi</t>
+  </si>
+  <si>
+    <t>Khardziani Tamari</t>
+  </si>
+  <si>
+    <t>Ioseliani Anastasia</t>
+  </si>
+  <si>
+    <t>Kudzoshvili Teona</t>
+  </si>
+  <si>
+    <t>Kandelaki Tsira</t>
+  </si>
+  <si>
+    <t>Chincharauli Giga</t>
+  </si>
+  <si>
+    <t>Tskhvedadze Sandro</t>
+  </si>
+  <si>
+    <t>Petriashvili Tornike</t>
+  </si>
+  <si>
+    <t>Chapidze Natalia</t>
+  </si>
+  <si>
+    <t>Savaneli Nino</t>
+  </si>
+  <si>
+    <t>Dartsmelia Mamuka</t>
+  </si>
+  <si>
+    <t>Razmadze Natia</t>
+  </si>
+  <si>
+    <t>Tsomaia Tinatin</t>
+  </si>
+  <si>
+    <t>Ekaterine Kartsivadze</t>
+  </si>
+  <si>
+    <t>Ismailov Idaiat</t>
+  </si>
+  <si>
+    <t>Elyar Akhi</t>
+  </si>
+  <si>
+    <t>Tevzadze Ilia</t>
+  </si>
+  <si>
+    <t>Nairashvili Elene</t>
+  </si>
+  <si>
+    <t>Utiashvili Tamar</t>
+  </si>
+  <si>
+    <t>Kadzanaia Tamar</t>
+  </si>
+  <si>
+    <t>Isaev Muraz</t>
+  </si>
+  <si>
+    <t>Rukhaia Nana</t>
+  </si>
+  <si>
+    <t>Erkut Batuhan</t>
+  </si>
+  <si>
+    <t>Kama Mustafa</t>
+  </si>
+  <si>
+    <t>Magalashvili Lala</t>
+  </si>
+  <si>
+    <t>Kvaratskhelia Marika</t>
+  </si>
+  <si>
+    <t>Gogoberishvili Aleksandre</t>
+  </si>
+  <si>
+    <t>Kikaleishvili Ana</t>
+  </si>
+  <si>
+    <t>Nanitashvili Revaz</t>
+  </si>
+  <si>
+    <t>Maisaia Zurab</t>
+  </si>
+  <si>
+    <t>Amoevi Nana</t>
+  </si>
+  <si>
+    <t>Ananiashvili Anana</t>
+  </si>
+  <si>
+    <t>Kruger Regina</t>
+  </si>
+  <si>
+    <t>Maisuradze Giorgi</t>
+  </si>
+  <si>
+    <t>Romanovskaia Marina</t>
+  </si>
+  <si>
+    <t>Arutinovi Artemi</t>
+  </si>
+  <si>
+    <t>Kartsivadze Ekaterine</t>
+  </si>
+  <si>
+    <t>emails</t>
+  </si>
+  <si>
+    <t>aackasova@evolution.com</t>
+  </si>
+  <si>
+    <t>aananiashvili@evolution.com</t>
+  </si>
+  <si>
+    <t>aarutinovi@evolution.com </t>
+  </si>
+  <si>
+    <t>aelyar@evolution.com</t>
+  </si>
+  <si>
+    <t>agogoberishvili@evolution.com</t>
+  </si>
+  <si>
+    <t>aimnadze@evolution.com </t>
+  </si>
+  <si>
+    <t>aioseliani@evolution.com</t>
+  </si>
+  <si>
+    <t>akikaleishvili@evolution.com</t>
+  </si>
+  <si>
+    <t>anakopia@evolution.com</t>
+  </si>
+  <si>
+    <t>berkut@evolution.com </t>
+  </si>
+  <si>
+    <t>dbasaria@evolutiongaming.com</t>
+  </si>
+  <si>
+    <t>ddevidze@evolution.com</t>
+  </si>
+  <si>
+    <t>dkutubidze@evolution.com</t>
+  </si>
+  <si>
+    <t>dmakhatadze@evolution.com</t>
+  </si>
+  <si>
+    <t>egvatua@evolution.com</t>
+  </si>
+  <si>
+    <t>ekartsivadze@evolution.com</t>
+  </si>
+  <si>
+    <t>enairashvili@evolution.com</t>
+  </si>
+  <si>
+    <t>gbachoshvili@evolution.com</t>
+  </si>
+  <si>
+    <t>gchincharauli@evolution.com</t>
+  </si>
+  <si>
+    <t>gmaisuradze@evolution.com</t>
+  </si>
+  <si>
+    <t>iismailovi@evolution.com</t>
+  </si>
+  <si>
+    <t>itevzadze@evolution.com</t>
+  </si>
+  <si>
+    <t>lmagalashvili@evolution.com</t>
+  </si>
+  <si>
+    <t>Mdartsmelia@evolution.com</t>
+  </si>
+  <si>
+    <t>misaev@evolution.com</t>
+  </si>
+  <si>
+    <t>mkama@evolution.com </t>
+  </si>
+  <si>
+    <t>Mkvaratskhelia3@evolution.com</t>
+  </si>
+  <si>
+    <t>mromanovskaia@evolution.com</t>
+  </si>
+  <si>
+    <t>mshamatava@evolution.com</t>
+  </si>
+  <si>
+    <t>mshiukashvili@evolution.com </t>
+  </si>
+  <si>
+    <t>namoevi@evolution.com </t>
+  </si>
+  <si>
+    <t>narachemia@evolution.com</t>
+  </si>
+  <si>
+    <t>nchapidze@evolution.com</t>
+  </si>
+  <si>
+    <t>nchkheidze@evolution.com</t>
+  </si>
+  <si>
+    <t>ngelovani@evolution.com</t>
+  </si>
+  <si>
+    <t>nmtvarelishvili@evolution.com</t>
+  </si>
+  <si>
+    <t>nrazmadze3@evolution.com</t>
+  </si>
+  <si>
+    <t>nrazmadze5@evolution.com</t>
+  </si>
+  <si>
+    <t>nrukhaia@evolution.com</t>
+  </si>
+  <si>
+    <t>nsavaneli@evolution.com</t>
+  </si>
+  <si>
+    <t>nsulaberidze@evolution.com</t>
+  </si>
+  <si>
+    <t>rkruger@evolution.com</t>
+  </si>
+  <si>
+    <t>rnanitashvili@evolution.com</t>
+  </si>
+  <si>
+    <t>ssiradze@evolution.com</t>
+  </si>
+  <si>
+    <t>stskhvedadze@evolution.com</t>
+  </si>
+  <si>
+    <t>tcherkezishvili@evolution.com</t>
+  </si>
+  <si>
+    <t>tdrozdova@evolution.com</t>
+  </si>
+  <si>
+    <t>tkadzanaia@evolution.com</t>
+  </si>
+  <si>
+    <t>tkandelaki@evolution.com</t>
+  </si>
+  <si>
+    <t>tkhardziani@evolution.com</t>
+  </si>
+  <si>
+    <t>tkudzoshvili@evolution.com</t>
+  </si>
+  <si>
+    <t>tpetriashvili@evolution.com</t>
+  </si>
+  <si>
+    <t>ttsomaia@evolution.com</t>
+  </si>
+  <si>
+    <t>tutiashvili@evolution.com</t>
+  </si>
+  <si>
+    <t>tvelijanashvili@evolution.com</t>
+  </si>
+  <si>
+    <t>vbeniashvili@evolution.com </t>
+  </si>
+  <si>
+    <t>yimamaliyev@evolution.com</t>
+  </si>
+  <si>
+    <t>zmaisaia@evolution.com</t>
+  </si>
+  <si>
+    <t>ztodua@evolution.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -481,22 +482,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -504,7 +490,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,186 +551,139 @@
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FF9DC3E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FF9DC3E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -788,6 +727,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -846,28 +786,302 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.71"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,101 +1171,101 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="3">
         <v>1.2</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E2" s="3" t="n">
+      <c r="D2" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E2" s="3">
         <v>3.2</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>4.2</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>5.2</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>6.2</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="3">
         <v>7.2</v>
       </c>
-      <c r="J2" s="3" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="M2" s="1" t="n">
+      <c r="J2" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K2" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M2" s="1">
         <v>11.2</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="1">
         <v>12.2</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2" s="3">
         <v>13.2</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" s="3">
         <v>14.2</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q2" s="3">
         <v>15.2</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="1">
         <v>16.2</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="S2" s="1">
         <v>17.2</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="T2" s="1">
         <v>18.2</v>
       </c>
-      <c r="U2" s="3" t="n">
+      <c r="U2" s="3">
         <v>19.2</v>
       </c>
-      <c r="V2" s="3" t="n">
+      <c r="V2" s="3">
         <v>20.2</v>
       </c>
-      <c r="W2" s="3" t="n">
+      <c r="W2" s="3">
         <v>21.2</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="X2" s="1">
         <v>22.2</v>
       </c>
-      <c r="Y2" s="1" t="n">
+      <c r="Y2" s="1">
         <v>23.2</v>
       </c>
-      <c r="Z2" s="1" t="n">
+      <c r="Z2" s="1">
         <v>24.2</v>
       </c>
-      <c r="AA2" s="3" t="n">
+      <c r="AA2" s="3">
         <v>25.2</v>
       </c>
-      <c r="AB2" s="3" t="n">
+      <c r="AB2" s="3">
         <v>26.2</v>
       </c>
-      <c r="AC2" s="3" t="n">
+      <c r="AC2" s="3">
         <v>27.2</v>
       </c>
-      <c r="AD2" s="1" t="n">
+      <c r="AD2" s="1">
         <v>28.2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1109,11 +1323,11 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
@@ -1161,11 +1375,11 @@
       </c>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
@@ -1211,11 +1425,11 @@
       </c>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1261,11 +1475,11 @@
       </c>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1311,11 +1525,11 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1371,11 +1585,11 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1431,11 +1645,11 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="8"/>
@@ -1481,11 +1695,11 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1543,11 +1757,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1595,11 +1809,11 @@
       </c>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1"/>
@@ -1647,11 +1861,11 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1715,11 +1929,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1767,11 +1981,11 @@
       </c>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1"/>
@@ -1817,11 +2031,11 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="10">
         <v>1</v>
       </c>
       <c r="C17" s="11"/>
@@ -1865,11 +2079,11 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="10">
         <v>1</v>
       </c>
       <c r="C18" s="11"/>
@@ -1913,11 +2127,11 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="13" t="n">
+      <c r="B19" s="13">
         <v>1</v>
       </c>
       <c r="C19" s="13"/>
@@ -1981,11 +2195,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="7">
         <v>2</v>
       </c>
       <c r="C20" s="7"/>
@@ -2029,11 +2243,11 @@
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" s="8"/>
@@ -2077,11 +2291,11 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="1">
         <v>2</v>
       </c>
       <c r="C22" s="8"/>
@@ -2137,11 +2351,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="1">
         <v>2</v>
       </c>
       <c r="C23" s="8"/>
@@ -2185,11 +2399,11 @@
       <c r="AC23" s="7"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="1">
         <v>2</v>
       </c>
       <c r="C24" s="19"/>
@@ -2233,11 +2447,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="1">
         <v>2</v>
       </c>
       <c r="C25" s="8"/>
@@ -2283,11 +2497,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="1">
         <v>2</v>
       </c>
       <c r="C26" s="1"/>
@@ -2343,11 +2557,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="1">
         <v>2</v>
       </c>
       <c r="C27" s="1"/>
@@ -2393,11 +2607,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="1">
         <v>2</v>
       </c>
       <c r="C28" s="1"/>
@@ -2443,11 +2657,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="1">
         <v>2</v>
       </c>
       <c r="C29" s="1"/>
@@ -2493,11 +2707,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="1">
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
@@ -2553,11 +2767,11 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="1">
         <v>2</v>
       </c>
       <c r="C31" s="1"/>
@@ -2623,11 +2837,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="1">
         <v>2</v>
       </c>
       <c r="C32" s="1"/>
@@ -2673,11 +2887,11 @@
       </c>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="1">
         <v>2</v>
       </c>
       <c r="C33" s="1"/>
@@ -2733,11 +2947,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="1">
         <v>2</v>
       </c>
       <c r="C34" s="1"/>
@@ -2781,11 +2995,11 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="1">
         <v>2</v>
       </c>
       <c r="C35" s="1"/>
@@ -2851,7 +3065,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
@@ -2885,7 +3099,7 @@
       <c r="AC36" s="20"/>
       <c r="AD36" s="20"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -2975,101 +3189,101 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" s="3">
         <v>1.2</v>
       </c>
-      <c r="D38" s="3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E38" s="3" t="n">
+      <c r="D38" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E38" s="3">
         <v>3.2</v>
       </c>
-      <c r="F38" s="1" t="n">
+      <c r="F38" s="1">
         <v>4.2</v>
       </c>
-      <c r="G38" s="1" t="n">
+      <c r="G38" s="1">
         <v>5.2</v>
       </c>
-      <c r="H38" s="1" t="n">
+      <c r="H38" s="1">
         <v>6.2</v>
       </c>
-      <c r="I38" s="3" t="n">
+      <c r="I38" s="3">
         <v>7.2</v>
       </c>
-      <c r="J38" s="3" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="K38" s="3" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="L38" s="1" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="M38" s="1" t="n">
+      <c r="J38" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K38" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L38" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M38" s="1">
         <v>11.2</v>
       </c>
-      <c r="N38" s="1" t="n">
+      <c r="N38" s="1">
         <v>12.2</v>
       </c>
-      <c r="O38" s="3" t="n">
+      <c r="O38" s="3">
         <v>13.2</v>
       </c>
-      <c r="P38" s="3" t="n">
+      <c r="P38" s="3">
         <v>14.2</v>
       </c>
-      <c r="Q38" s="3" t="n">
+      <c r="Q38" s="3">
         <v>15.2</v>
       </c>
-      <c r="R38" s="1" t="n">
+      <c r="R38" s="1">
         <v>16.2</v>
       </c>
-      <c r="S38" s="1" t="n">
+      <c r="S38" s="1">
         <v>17.2</v>
       </c>
-      <c r="T38" s="1" t="n">
+      <c r="T38" s="1">
         <v>18.2</v>
       </c>
-      <c r="U38" s="3" t="n">
+      <c r="U38" s="3">
         <v>19.2</v>
       </c>
-      <c r="V38" s="3" t="n">
+      <c r="V38" s="3">
         <v>20.2</v>
       </c>
-      <c r="W38" s="3" t="n">
+      <c r="W38" s="3">
         <v>21.2</v>
       </c>
-      <c r="X38" s="1" t="n">
+      <c r="X38" s="1">
         <v>22.2</v>
       </c>
-      <c r="Y38" s="1" t="n">
+      <c r="Y38" s="1">
         <v>23.2</v>
       </c>
-      <c r="Z38" s="1" t="n">
+      <c r="Z38" s="1">
         <v>24.2</v>
       </c>
-      <c r="AA38" s="3" t="n">
+      <c r="AA38" s="3">
         <v>25.2</v>
       </c>
-      <c r="AB38" s="3" t="n">
+      <c r="AB38" s="3">
         <v>26.2</v>
       </c>
-      <c r="AC38" s="3" t="n">
+      <c r="AC38" s="3">
         <v>27.2</v>
       </c>
-      <c r="AD38" s="1" t="n">
+      <c r="AD38" s="1">
         <v>28.2</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="1">
         <v>1</v>
       </c>
       <c r="C39" s="1"/>
@@ -3115,11 +3329,11 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="1">
         <v>1</v>
       </c>
       <c r="C40" s="1"/>
@@ -3175,11 +3389,11 @@
       </c>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="1">
         <v>1</v>
       </c>
       <c r="C41" s="1"/>
@@ -3235,11 +3449,11 @@
       </c>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="1">
         <v>1</v>
       </c>
       <c r="C42" s="21" t="s">
@@ -3292,11 +3506,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="1">
         <v>1</v>
       </c>
       <c r="C43" s="7"/>
@@ -3340,11 +3554,11 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="1">
         <v>1</v>
       </c>
       <c r="C44" s="19"/>
@@ -3386,11 +3600,11 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="1">
         <v>1</v>
       </c>
       <c r="C45" s="1"/>
@@ -3434,11 +3648,11 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="1">
         <v>1</v>
       </c>
       <c r="C46" s="21" t="s">
@@ -3482,11 +3696,11 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="1">
         <v>1</v>
       </c>
       <c r="C47" s="1"/>
@@ -3532,11 +3746,11 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="1">
         <v>1</v>
       </c>
       <c r="C48" s="21" t="s">
@@ -3602,11 +3816,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="1">
         <v>1</v>
       </c>
       <c r="C49" s="21" t="s">
@@ -3662,11 +3876,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="1">
         <v>1</v>
       </c>
       <c r="C50" s="21" t="s">
@@ -3712,11 +3926,11 @@
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="1">
         <v>1</v>
       </c>
       <c r="C51" s="21" t="s">
@@ -3772,11 +3986,11 @@
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="1">
         <v>1</v>
       </c>
       <c r="C52" s="21" t="s">
@@ -3824,11 +4038,11 @@
       </c>
       <c r="AD52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="1">
         <v>1</v>
       </c>
       <c r="C53" s="21" t="s">
@@ -3874,11 +4088,11 @@
       </c>
       <c r="AD53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="13" t="n">
+      <c r="B54" s="13">
         <v>1</v>
       </c>
       <c r="C54" s="13"/>
@@ -3924,11 +4138,11 @@
       </c>
       <c r="AD54" s="13"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="7" t="n">
+      <c r="B55" s="7">
         <v>2</v>
       </c>
       <c r="C55" s="7"/>
@@ -3972,11 +4186,11 @@
       <c r="AC55" s="7"/>
       <c r="AD55" s="7"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="1">
         <v>2</v>
       </c>
       <c r="C56" s="1"/>
@@ -4020,11 +4234,11 @@
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="1">
         <v>2</v>
       </c>
       <c r="C57" s="1"/>
@@ -4068,11 +4282,11 @@
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="1">
         <v>2</v>
       </c>
       <c r="C58" s="1"/>
@@ -4116,11 +4330,11 @@
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="1">
         <v>2</v>
       </c>
       <c r="C59" s="1"/>
@@ -4164,11 +4378,11 @@
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="1">
         <v>2</v>
       </c>
       <c r="C60" s="1"/>
@@ -4212,11 +4426,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="1">
         <v>2</v>
       </c>
       <c r="C61" s="19"/>
@@ -4260,11 +4474,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="1">
         <v>2</v>
       </c>
       <c r="C62" s="19"/>
@@ -4308,11 +4522,11 @@
       </c>
       <c r="AD62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="1">
         <v>2</v>
       </c>
       <c r="C63" s="1"/>
@@ -4368,11 +4582,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="1">
         <v>2</v>
       </c>
       <c r="C64" s="1"/>
@@ -4416,11 +4630,11 @@
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="1">
         <v>2</v>
       </c>
       <c r="C65" s="1"/>
@@ -4464,11 +4678,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="1">
         <v>2</v>
       </c>
       <c r="C66" s="1"/>
@@ -4524,11 +4738,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="1">
         <v>2</v>
       </c>
       <c r="C67" s="1"/>
@@ -4574,11 +4788,11 @@
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="1">
         <v>2</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -4634,11 +4848,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="1">
         <v>2</v>
       </c>
       <c r="C69" s="1"/>
@@ -4702,11 +4916,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="1">
         <v>2</v>
       </c>
       <c r="C70" s="1"/>
@@ -4762,7 +4976,7 @@
       <c r="AC70" s="1"/>
       <c r="AD70" s="1"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>49</v>
       </c>
@@ -4796,7 +5010,7 @@
       <c r="AC71" s="20"/>
       <c r="AD71" s="20"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -4886,130 +5100,122 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="3" t="n">
+      <c r="C73" s="3">
         <v>1.2</v>
       </c>
-      <c r="D73" s="3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E73" s="3" t="n">
+      <c r="D73" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E73" s="3">
         <v>3.2</v>
       </c>
-      <c r="F73" s="1" t="n">
+      <c r="F73" s="1">
         <v>4.2</v>
       </c>
-      <c r="G73" s="1" t="n">
+      <c r="G73" s="1">
         <v>5.2</v>
       </c>
-      <c r="H73" s="1" t="n">
+      <c r="H73" s="1">
         <v>6.2</v>
       </c>
-      <c r="I73" s="3" t="n">
+      <c r="I73" s="3">
         <v>7.2</v>
       </c>
-      <c r="J73" s="3" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="K73" s="3" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="L73" s="1" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="M73" s="1" t="n">
+      <c r="J73" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K73" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L73" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M73" s="1">
         <v>11.2</v>
       </c>
-      <c r="N73" s="1" t="n">
+      <c r="N73" s="1">
         <v>12.2</v>
       </c>
-      <c r="O73" s="3" t="n">
+      <c r="O73" s="3">
         <v>13.2</v>
       </c>
-      <c r="P73" s="3" t="n">
+      <c r="P73" s="3">
         <v>14.2</v>
       </c>
-      <c r="Q73" s="3" t="n">
+      <c r="Q73" s="3">
         <v>15.2</v>
       </c>
-      <c r="R73" s="1" t="n">
+      <c r="R73" s="1">
         <v>16.2</v>
       </c>
-      <c r="S73" s="1" t="n">
+      <c r="S73" s="1">
         <v>17.2</v>
       </c>
-      <c r="T73" s="1" t="n">
+      <c r="T73" s="1">
         <v>18.2</v>
       </c>
-      <c r="U73" s="3" t="n">
+      <c r="U73" s="3">
         <v>19.2</v>
       </c>
-      <c r="V73" s="3" t="n">
+      <c r="V73" s="3">
         <v>20.2</v>
       </c>
-      <c r="W73" s="3" t="n">
+      <c r="W73" s="3">
         <v>21.2</v>
       </c>
-      <c r="X73" s="1" t="n">
+      <c r="X73" s="1">
         <v>22.2</v>
       </c>
-      <c r="Y73" s="1" t="n">
+      <c r="Y73" s="1">
         <v>23.2</v>
       </c>
-      <c r="Z73" s="1" t="n">
+      <c r="Z73" s="1">
         <v>24.2</v>
       </c>
-      <c r="AA73" s="3" t="n">
+      <c r="AA73" s="3">
         <v>25.2</v>
       </c>
-      <c r="AB73" s="3" t="n">
+      <c r="AB73" s="3">
         <v>26.2</v>
       </c>
-      <c r="AC73" s="3" t="n">
+      <c r="AC73" s="3">
         <v>27.2</v>
       </c>
-      <c r="AD73" s="1" t="n">
+      <c r="AD73" s="1">
         <v>28.2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D44:E44">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C25 C14:C15 C44 C3 C6 C8:C12">
-    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.14"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5099,101 +5305,101 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="3">
         <v>1.2</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E2" s="3" t="n">
+      <c r="D2" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E2" s="3">
         <v>3.2</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>4.2</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>5.2</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>6.2</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="3">
         <v>7.2</v>
       </c>
-      <c r="J2" s="3" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="M2" s="1" t="n">
+      <c r="J2" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K2" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M2" s="1">
         <v>11.2</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="1">
         <v>12.2</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2" s="3">
         <v>13.2</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" s="3">
         <v>14.2</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q2" s="3">
         <v>15.2</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="1">
         <v>16.2</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="S2" s="1">
         <v>17.2</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="T2" s="1">
         <v>18.2</v>
       </c>
-      <c r="U2" s="3" t="n">
+      <c r="U2" s="3">
         <v>19.2</v>
       </c>
-      <c r="V2" s="3" t="n">
+      <c r="V2" s="3">
         <v>20.2</v>
       </c>
-      <c r="W2" s="3" t="n">
+      <c r="W2" s="3">
         <v>21.2</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="X2" s="1">
         <v>22.2</v>
       </c>
-      <c r="Y2" s="1" t="n">
+      <c r="Y2" s="1">
         <v>23.2</v>
       </c>
-      <c r="Z2" s="1" t="n">
+      <c r="Z2" s="1">
         <v>24.2</v>
       </c>
-      <c r="AA2" s="3" t="n">
+      <c r="AA2" s="3">
         <v>25.2</v>
       </c>
-      <c r="AB2" s="3" t="n">
+      <c r="AB2" s="3">
         <v>26.2</v>
       </c>
-      <c r="AC2" s="3" t="n">
+      <c r="AC2" s="3">
         <v>27.2</v>
       </c>
-      <c r="AD2" s="1" t="n">
+      <c r="AD2" s="1">
         <v>28.2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -5251,11 +5457,11 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
@@ -5303,11 +5509,11 @@
       </c>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
@@ -5353,11 +5559,11 @@
       </c>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -5403,11 +5609,11 @@
       </c>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -5453,11 +5659,11 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -5513,11 +5719,11 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -5573,11 +5779,11 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="8"/>
@@ -5623,11 +5829,11 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -5685,11 +5891,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -5737,11 +5943,11 @@
       </c>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1"/>
@@ -5789,11 +5995,11 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -5857,11 +6063,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -5909,11 +6115,11 @@
       </c>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1"/>
@@ -5959,11 +6165,11 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="10">
         <v>1</v>
       </c>
       <c r="C17" s="11"/>
@@ -6007,11 +6213,11 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="10">
         <v>1</v>
       </c>
       <c r="C18" s="11"/>
@@ -6055,11 +6261,11 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="13" t="n">
+      <c r="B19" s="13">
         <v>1</v>
       </c>
       <c r="C19" s="13"/>
@@ -6123,11 +6329,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="7">
         <v>2</v>
       </c>
       <c r="C20" s="7"/>
@@ -6171,11 +6377,11 @@
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" s="8"/>
@@ -6219,11 +6425,11 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="1">
         <v>2</v>
       </c>
       <c r="C22" s="8"/>
@@ -6279,11 +6485,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="1">
         <v>2</v>
       </c>
       <c r="C23" s="8"/>
@@ -6327,11 +6533,11 @@
       <c r="AC23" s="7"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="1">
         <v>2</v>
       </c>
       <c r="C24" s="19"/>
@@ -6375,11 +6581,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="1">
         <v>2</v>
       </c>
       <c r="C25" s="8"/>
@@ -6425,11 +6631,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="1">
         <v>2</v>
       </c>
       <c r="C26" s="1"/>
@@ -6485,11 +6691,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="1">
         <v>2</v>
       </c>
       <c r="C27" s="1"/>
@@ -6535,11 +6741,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="1">
         <v>2</v>
       </c>
       <c r="C28" s="1"/>
@@ -6585,11 +6791,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="1">
         <v>2</v>
       </c>
       <c r="C29" s="1"/>
@@ -6635,11 +6841,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="1">
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
@@ -6695,11 +6901,11 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="1">
         <v>2</v>
       </c>
       <c r="C31" s="1"/>
@@ -6765,11 +6971,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="1">
         <v>2</v>
       </c>
       <c r="C32" s="1"/>
@@ -6815,11 +7021,11 @@
       </c>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="1">
         <v>2</v>
       </c>
       <c r="C33" s="1"/>
@@ -6875,11 +7081,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="1">
         <v>2</v>
       </c>
       <c r="C34" s="1"/>
@@ -6923,11 +7129,11 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="1">
         <v>2</v>
       </c>
       <c r="C35" s="1"/>
@@ -6993,11 +7199,11 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36" s="1"/>
@@ -7043,11 +7249,11 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="1">
         <v>1</v>
       </c>
       <c r="C37" s="1"/>
@@ -7103,11 +7309,11 @@
       </c>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="1">
         <v>1</v>
       </c>
       <c r="C38" s="1"/>
@@ -7163,11 +7369,11 @@
       </c>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="1">
         <v>1</v>
       </c>
       <c r="C39" s="21" t="s">
@@ -7220,11 +7426,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="1">
         <v>1</v>
       </c>
       <c r="C40" s="7"/>
@@ -7268,11 +7474,11 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="21" t="s">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="1">
         <v>1</v>
       </c>
       <c r="C41" s="19"/>
@@ -7314,11 +7520,11 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21" t="s">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="1">
         <v>1</v>
       </c>
       <c r="C42" s="1"/>
@@ -7362,11 +7568,11 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="21" t="s">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="1">
         <v>1</v>
       </c>
       <c r="C43" s="21" t="s">
@@ -7410,11 +7616,11 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="21" t="s">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="1">
         <v>1</v>
       </c>
       <c r="C44" s="1"/>
@@ -7460,11 +7666,11 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="21" t="s">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="1">
         <v>1</v>
       </c>
       <c r="C45" s="21" t="s">
@@ -7530,11 +7736,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="21" t="s">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="1">
         <v>1</v>
       </c>
       <c r="C46" s="21" t="s">
@@ -7590,11 +7796,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="21" t="s">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="1">
         <v>1</v>
       </c>
       <c r="C47" s="21" t="s">
@@ -7640,11 +7846,11 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="21" t="s">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="1">
         <v>1</v>
       </c>
       <c r="C48" s="21" t="s">
@@ -7700,11 +7906,11 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="21" t="s">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="1">
         <v>1</v>
       </c>
       <c r="C49" s="21" t="s">
@@ -7752,11 +7958,11 @@
       </c>
       <c r="AD49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="21" t="s">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="1">
         <v>1</v>
       </c>
       <c r="C50" s="21" t="s">
@@ -7802,11 +8008,11 @@
       </c>
       <c r="AD50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="22" t="s">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A51" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="13" t="n">
+      <c r="B51" s="13">
         <v>1</v>
       </c>
       <c r="C51" s="13"/>
@@ -7852,11 +8058,11 @@
       </c>
       <c r="AD51" s="13"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="24" t="s">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="7" t="n">
+      <c r="B52" s="7">
         <v>2</v>
       </c>
       <c r="C52" s="7"/>
@@ -7900,11 +8106,11 @@
       <c r="AC52" s="7"/>
       <c r="AD52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="21" t="s">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="1">
         <v>2</v>
       </c>
       <c r="C53" s="1"/>
@@ -7948,11 +8154,11 @@
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="21" t="s">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="1">
         <v>2</v>
       </c>
       <c r="C54" s="1"/>
@@ -7996,11 +8202,11 @@
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="21" t="s">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="1">
         <v>2</v>
       </c>
       <c r="C55" s="1"/>
@@ -8044,11 +8250,11 @@
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="21" t="s">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="1">
         <v>2</v>
       </c>
       <c r="C56" s="1"/>
@@ -8092,11 +8298,11 @@
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="21" t="s">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="1">
         <v>2</v>
       </c>
       <c r="C57" s="1"/>
@@ -8140,11 +8346,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="21" t="s">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="1">
         <v>2</v>
       </c>
       <c r="C58" s="19"/>
@@ -8188,11 +8394,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="21" t="s">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A59" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="1">
         <v>2</v>
       </c>
       <c r="C59" s="19"/>
@@ -8236,11 +8442,11 @@
       </c>
       <c r="AD59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="21" t="s">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="1">
         <v>2</v>
       </c>
       <c r="C60" s="1"/>
@@ -8296,11 +8502,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="21" t="s">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="1">
         <v>2</v>
       </c>
       <c r="C61" s="1"/>
@@ -8344,11 +8550,11 @@
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="21" t="s">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="1">
         <v>2</v>
       </c>
       <c r="C62" s="1"/>
@@ -8392,11 +8598,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="21" t="s">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="1">
         <v>2</v>
       </c>
       <c r="C63" s="1"/>
@@ -8452,11 +8658,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="21" t="s">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A64" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="1">
         <v>2</v>
       </c>
       <c r="C64" s="1"/>
@@ -8502,11 +8708,11 @@
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="21" t="s">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A65" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="1">
         <v>2</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -8562,11 +8768,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="21" t="s">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A66" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="1">
         <v>2</v>
       </c>
       <c r="C66" s="1"/>
@@ -8630,11 +8836,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="21" t="s">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A67" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="1">
         <v>2</v>
       </c>
       <c r="C67" s="1"/>
@@ -8692,347 +8898,334 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41 C17:C25 C14:C15 C3 C6 C8:C12">
-    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.29"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>146</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="aarutinovi@evolution.com "/>
+    <hyperlink ref="A4" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>